--- a/full_data.xlsx
+++ b/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bobenkom/Documents/GitHub/ElectionsResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EF80998-CF4B-C148-9406-40C123A5AD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A8B742B-2491-A943-B463-E10EAF86B612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1360" windowWidth="28040" windowHeight="16900" xr2:uid="{9AB88D0F-77C1-C449-8FAF-524EB7C6B7A5}"/>
+    <workbookView xWindow="400" yWindow="1100" windowWidth="28040" windowHeight="16900" xr2:uid="{9AB88D0F-77C1-C449-8FAF-524EB7C6B7A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="full_data" localSheetId="0">Лист1!$A$1:$Q$226</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:R226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1238,7 +1238,7 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" style="3" customWidth="1"/>
     <col min="13" max="13" width="9.1640625" style="3" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
@@ -1278,7 +1278,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1331,8 +1331,8 @@
       <c r="J2">
         <v>4883</v>
       </c>
-      <c r="K2">
-        <v>24.31</v>
+      <c r="K2" s="3">
+        <v>0.24309999999999998</v>
       </c>
       <c r="L2" s="3">
         <v>3.2000000000000002E-3</v>
@@ -1385,8 +1385,8 @@
       <c r="J3">
         <v>4883</v>
       </c>
-      <c r="K3">
-        <v>24.31</v>
+      <c r="K3" s="3">
+        <v>0.24309999999999998</v>
       </c>
       <c r="L3" s="3">
         <v>3.2000000000000002E-3</v>
@@ -1439,8 +1439,8 @@
       <c r="J4">
         <v>4883</v>
       </c>
-      <c r="K4">
-        <v>24.31</v>
+      <c r="K4" s="3">
+        <v>0.24309999999999998</v>
       </c>
       <c r="L4" s="3">
         <v>3.2000000000000002E-3</v>
@@ -1493,8 +1493,8 @@
       <c r="J5">
         <v>4883</v>
       </c>
-      <c r="K5">
-        <v>24.31</v>
+      <c r="K5" s="3">
+        <v>0.24309999999999998</v>
       </c>
       <c r="L5" s="3">
         <v>3.2000000000000002E-3</v>
@@ -1547,8 +1547,8 @@
       <c r="J6">
         <v>4883</v>
       </c>
-      <c r="K6">
-        <v>24.31</v>
+      <c r="K6" s="3">
+        <v>0.24309999999999998</v>
       </c>
       <c r="L6" s="3">
         <v>3.2000000000000002E-3</v>
@@ -1601,8 +1601,8 @@
       <c r="J7">
         <v>3108</v>
       </c>
-      <c r="K7">
-        <v>20.94</v>
+      <c r="K7" s="3">
+        <v>0.2094</v>
       </c>
       <c r="L7" s="3">
         <v>3.3E-3</v>
@@ -1655,8 +1655,8 @@
       <c r="J8">
         <v>3108</v>
       </c>
-      <c r="K8">
-        <v>20.94</v>
+      <c r="K8" s="3">
+        <v>0.2094</v>
       </c>
       <c r="L8" s="3">
         <v>3.3E-3</v>
@@ -1709,8 +1709,8 @@
       <c r="J9">
         <v>3108</v>
       </c>
-      <c r="K9">
-        <v>20.94</v>
+      <c r="K9" s="3">
+        <v>0.2094</v>
       </c>
       <c r="L9" s="3">
         <v>3.3E-3</v>
@@ -1763,8 +1763,8 @@
       <c r="J10">
         <v>3108</v>
       </c>
-      <c r="K10">
-        <v>20.94</v>
+      <c r="K10" s="3">
+        <v>0.2094</v>
       </c>
       <c r="L10" s="3">
         <v>3.3E-3</v>
@@ -1817,8 +1817,8 @@
       <c r="J11">
         <v>3108</v>
       </c>
-      <c r="K11">
-        <v>20.94</v>
+      <c r="K11" s="3">
+        <v>0.2094</v>
       </c>
       <c r="L11" s="3">
         <v>3.3E-3</v>
@@ -1871,8 +1871,8 @@
       <c r="J12">
         <v>2791</v>
       </c>
-      <c r="K12">
-        <v>20.92</v>
+      <c r="K12" s="3">
+        <v>0.20920000000000002</v>
       </c>
       <c r="L12" s="3">
         <v>4.0000000000000001E-3</v>
@@ -1925,8 +1925,8 @@
       <c r="J13">
         <v>2791</v>
       </c>
-      <c r="K13">
-        <v>20.92</v>
+      <c r="K13" s="3">
+        <v>0.20920000000000002</v>
       </c>
       <c r="L13" s="3">
         <v>4.0000000000000001E-3</v>
@@ -1979,8 +1979,8 @@
       <c r="J14">
         <v>2791</v>
       </c>
-      <c r="K14">
-        <v>20.92</v>
+      <c r="K14" s="3">
+        <v>0.20920000000000002</v>
       </c>
       <c r="L14" s="3">
         <v>4.0000000000000001E-3</v>
@@ -2033,8 +2033,8 @@
       <c r="J15">
         <v>2791</v>
       </c>
-      <c r="K15">
-        <v>20.92</v>
+      <c r="K15" s="3">
+        <v>0.20920000000000002</v>
       </c>
       <c r="L15" s="3">
         <v>4.0000000000000001E-3</v>
@@ -2087,8 +2087,8 @@
       <c r="J16">
         <v>1889</v>
       </c>
-      <c r="K16">
-        <v>20.95</v>
+      <c r="K16" s="3">
+        <v>0.20949999999999999</v>
       </c>
       <c r="L16" s="3">
         <v>4.0999999999999995E-3</v>
@@ -2141,8 +2141,8 @@
       <c r="J17">
         <v>1889</v>
       </c>
-      <c r="K17">
-        <v>20.95</v>
+      <c r="K17" s="3">
+        <v>0.20949999999999999</v>
       </c>
       <c r="L17" s="3">
         <v>4.0999999999999995E-3</v>
@@ -2195,8 +2195,8 @@
       <c r="J18">
         <v>1889</v>
       </c>
-      <c r="K18">
-        <v>20.95</v>
+      <c r="K18" s="3">
+        <v>0.20949999999999999</v>
       </c>
       <c r="L18" s="3">
         <v>4.0999999999999995E-3</v>
@@ -2249,8 +2249,8 @@
       <c r="J19">
         <v>1889</v>
       </c>
-      <c r="K19">
-        <v>20.95</v>
+      <c r="K19" s="3">
+        <v>0.20949999999999999</v>
       </c>
       <c r="L19" s="3">
         <v>4.0999999999999995E-3</v>
@@ -2303,8 +2303,8 @@
       <c r="J20">
         <v>1889</v>
       </c>
-      <c r="K20">
-        <v>20.95</v>
+      <c r="K20" s="3">
+        <v>0.20949999999999999</v>
       </c>
       <c r="L20" s="3">
         <v>4.0999999999999995E-3</v>
@@ -2357,8 +2357,8 @@
       <c r="J21">
         <v>2597</v>
       </c>
-      <c r="K21">
-        <v>22.16</v>
+      <c r="K21" s="3">
+        <v>0.22159999999999999</v>
       </c>
       <c r="L21" s="3">
         <v>3.4999999999999996E-3</v>
@@ -2411,8 +2411,8 @@
       <c r="J22">
         <v>2597</v>
       </c>
-      <c r="K22">
-        <v>22.16</v>
+      <c r="K22" s="3">
+        <v>0.22159999999999999</v>
       </c>
       <c r="L22" s="3">
         <v>3.4999999999999996E-3</v>
@@ -2465,8 +2465,8 @@
       <c r="J23">
         <v>2597</v>
       </c>
-      <c r="K23">
-        <v>22.16</v>
+      <c r="K23" s="3">
+        <v>0.22159999999999999</v>
       </c>
       <c r="L23" s="3">
         <v>3.4999999999999996E-3</v>
@@ -2519,8 +2519,8 @@
       <c r="J24">
         <v>2597</v>
       </c>
-      <c r="K24">
-        <v>22.16</v>
+      <c r="K24" s="3">
+        <v>0.22159999999999999</v>
       </c>
       <c r="L24" s="3">
         <v>3.4999999999999996E-3</v>
@@ -2573,8 +2573,8 @@
       <c r="J25">
         <v>4373</v>
       </c>
-      <c r="K25">
-        <v>22.56</v>
+      <c r="K25" s="3">
+        <v>0.22559999999999999</v>
       </c>
       <c r="L25" s="3">
         <v>3.4000000000000002E-3</v>
@@ -2627,8 +2627,8 @@
       <c r="J26">
         <v>4373</v>
       </c>
-      <c r="K26">
-        <v>22.56</v>
+      <c r="K26" s="3">
+        <v>0.22559999999999999</v>
       </c>
       <c r="L26" s="3">
         <v>3.4000000000000002E-3</v>
@@ -2681,8 +2681,8 @@
       <c r="J27">
         <v>4373</v>
       </c>
-      <c r="K27">
-        <v>22.56</v>
+      <c r="K27" s="3">
+        <v>0.22559999999999999</v>
       </c>
       <c r="L27" s="3">
         <v>3.4000000000000002E-3</v>
@@ -2735,8 +2735,8 @@
       <c r="J28">
         <v>4373</v>
       </c>
-      <c r="K28">
-        <v>22.56</v>
+      <c r="K28" s="3">
+        <v>0.22559999999999999</v>
       </c>
       <c r="L28" s="3">
         <v>3.4000000000000002E-3</v>
@@ -2789,8 +2789,8 @@
       <c r="J29">
         <v>4373</v>
       </c>
-      <c r="K29">
-        <v>22.56</v>
+      <c r="K29" s="3">
+        <v>0.22559999999999999</v>
       </c>
       <c r="L29" s="3">
         <v>3.4000000000000002E-3</v>
@@ -2843,8 +2843,8 @@
       <c r="J30">
         <v>3537</v>
       </c>
-      <c r="K30">
-        <v>21.31</v>
+      <c r="K30" s="3">
+        <v>0.21309999999999998</v>
       </c>
       <c r="L30" s="3">
         <v>4.5999999999999999E-3</v>
@@ -2897,8 +2897,8 @@
       <c r="J31">
         <v>3537</v>
       </c>
-      <c r="K31">
-        <v>21.31</v>
+      <c r="K31" s="3">
+        <v>0.21309999999999998</v>
       </c>
       <c r="L31" s="3">
         <v>4.5999999999999999E-3</v>
@@ -2951,8 +2951,8 @@
       <c r="J32">
         <v>3537</v>
       </c>
-      <c r="K32">
-        <v>21.31</v>
+      <c r="K32" s="3">
+        <v>0.21309999999999998</v>
       </c>
       <c r="L32" s="3">
         <v>4.5999999999999999E-3</v>
@@ -3005,8 +3005,8 @@
       <c r="J33">
         <v>3537</v>
       </c>
-      <c r="K33">
-        <v>21.31</v>
+      <c r="K33" s="3">
+        <v>0.21309999999999998</v>
       </c>
       <c r="L33" s="3">
         <v>4.5999999999999999E-3</v>
@@ -3059,8 +3059,8 @@
       <c r="J34">
         <v>3537</v>
       </c>
-      <c r="K34">
-        <v>21.31</v>
+      <c r="K34" s="3">
+        <v>0.21309999999999998</v>
       </c>
       <c r="L34" s="3">
         <v>4.5999999999999999E-3</v>
@@ -3113,8 +3113,8 @@
       <c r="J35">
         <v>3479</v>
       </c>
-      <c r="K35">
-        <v>23.23</v>
+      <c r="K35" s="3">
+        <v>0.23230000000000001</v>
       </c>
       <c r="L35" s="3">
         <v>4.1999999999999997E-3</v>
@@ -3167,8 +3167,8 @@
       <c r="J36">
         <v>3479</v>
       </c>
-      <c r="K36">
-        <v>23.23</v>
+      <c r="K36" s="3">
+        <v>0.23230000000000001</v>
       </c>
       <c r="L36" s="3">
         <v>4.1999999999999997E-3</v>
@@ -3221,8 +3221,8 @@
       <c r="J37">
         <v>3479</v>
       </c>
-      <c r="K37">
-        <v>23.23</v>
+      <c r="K37" s="3">
+        <v>0.23230000000000001</v>
       </c>
       <c r="L37" s="3">
         <v>4.1999999999999997E-3</v>
@@ -3275,8 +3275,8 @@
       <c r="J38">
         <v>3479</v>
       </c>
-      <c r="K38">
-        <v>23.23</v>
+      <c r="K38" s="3">
+        <v>0.23230000000000001</v>
       </c>
       <c r="L38" s="3">
         <v>4.1999999999999997E-3</v>
@@ -3329,8 +3329,8 @@
       <c r="J39">
         <v>3479</v>
       </c>
-      <c r="K39">
-        <v>23.23</v>
+      <c r="K39" s="3">
+        <v>0.23230000000000001</v>
       </c>
       <c r="L39" s="3">
         <v>4.1999999999999997E-3</v>
@@ -3383,8 +3383,8 @@
       <c r="J40">
         <v>3479</v>
       </c>
-      <c r="K40">
-        <v>23.23</v>
+      <c r="K40" s="3">
+        <v>0.23230000000000001</v>
       </c>
       <c r="L40" s="3">
         <v>4.1999999999999997E-3</v>
@@ -3437,8 +3437,8 @@
       <c r="J41">
         <v>3248</v>
       </c>
-      <c r="K41">
-        <v>21.86</v>
+      <c r="K41" s="3">
+        <v>0.21859999999999999</v>
       </c>
       <c r="L41" s="3">
         <v>3.9000000000000003E-3</v>
@@ -3491,8 +3491,8 @@
       <c r="J42">
         <v>3248</v>
       </c>
-      <c r="K42">
-        <v>21.86</v>
+      <c r="K42" s="3">
+        <v>0.21859999999999999</v>
       </c>
       <c r="L42" s="3">
         <v>3.9000000000000003E-3</v>
@@ -3545,8 +3545,8 @@
       <c r="J43">
         <v>3248</v>
       </c>
-      <c r="K43">
-        <v>21.86</v>
+      <c r="K43" s="3">
+        <v>0.21859999999999999</v>
       </c>
       <c r="L43" s="3">
         <v>3.9000000000000003E-3</v>
@@ -3599,8 +3599,8 @@
       <c r="J44">
         <v>3248</v>
       </c>
-      <c r="K44">
-        <v>21.86</v>
+      <c r="K44" s="3">
+        <v>0.21859999999999999</v>
       </c>
       <c r="L44" s="3">
         <v>3.9000000000000003E-3</v>
@@ -3653,8 +3653,8 @@
       <c r="J45">
         <v>3248</v>
       </c>
-      <c r="K45">
-        <v>21.86</v>
+      <c r="K45" s="3">
+        <v>0.21859999999999999</v>
       </c>
       <c r="L45" s="3">
         <v>3.9000000000000003E-3</v>
@@ -3707,8 +3707,8 @@
       <c r="J46">
         <v>3364</v>
       </c>
-      <c r="K46">
-        <v>21.56</v>
+      <c r="K46" s="3">
+        <v>0.21559999999999999</v>
       </c>
       <c r="L46" s="3">
         <v>2.2000000000000001E-3</v>
@@ -3761,8 +3761,8 @@
       <c r="J47">
         <v>3364</v>
       </c>
-      <c r="K47">
-        <v>21.56</v>
+      <c r="K47" s="3">
+        <v>0.21559999999999999</v>
       </c>
       <c r="L47" s="3">
         <v>2.2000000000000001E-3</v>
@@ -3815,8 +3815,8 @@
       <c r="J48">
         <v>3364</v>
       </c>
-      <c r="K48">
-        <v>21.56</v>
+      <c r="K48" s="3">
+        <v>0.21559999999999999</v>
       </c>
       <c r="L48" s="3">
         <v>2.2000000000000001E-3</v>
@@ -3869,8 +3869,8 @@
       <c r="J49">
         <v>3364</v>
       </c>
-      <c r="K49">
-        <v>21.56</v>
+      <c r="K49" s="3">
+        <v>0.21559999999999999</v>
       </c>
       <c r="L49" s="3">
         <v>2.2000000000000001E-3</v>
@@ -3923,8 +3923,8 @@
       <c r="J50">
         <v>3364</v>
       </c>
-      <c r="K50">
-        <v>21.56</v>
+      <c r="K50" s="3">
+        <v>0.21559999999999999</v>
       </c>
       <c r="L50" s="3">
         <v>2.2000000000000001E-3</v>
@@ -3977,8 +3977,8 @@
       <c r="J51">
         <v>2831</v>
       </c>
-      <c r="K51">
-        <v>20.74</v>
+      <c r="K51" s="3">
+        <v>0.20739999999999997</v>
       </c>
       <c r="L51" s="3">
         <v>3.5999999999999999E-3</v>
@@ -4031,8 +4031,8 @@
       <c r="J52">
         <v>2831</v>
       </c>
-      <c r="K52">
-        <v>20.74</v>
+      <c r="K52" s="3">
+        <v>0.20739999999999997</v>
       </c>
       <c r="L52" s="3">
         <v>3.5999999999999999E-3</v>
@@ -4085,8 +4085,8 @@
       <c r="J53">
         <v>2831</v>
       </c>
-      <c r="K53">
-        <v>20.74</v>
+      <c r="K53" s="3">
+        <v>0.20739999999999997</v>
       </c>
       <c r="L53" s="3">
         <v>3.5999999999999999E-3</v>
@@ -4139,8 +4139,8 @@
       <c r="J54">
         <v>2831</v>
       </c>
-      <c r="K54">
-        <v>20.74</v>
+      <c r="K54" s="3">
+        <v>0.20739999999999997</v>
       </c>
       <c r="L54" s="3">
         <v>3.5999999999999999E-3</v>
@@ -4193,8 +4193,8 @@
       <c r="J55">
         <v>2864</v>
       </c>
-      <c r="K55">
-        <v>22.58</v>
+      <c r="K55" s="3">
+        <v>0.22579999999999997</v>
       </c>
       <c r="L55" s="3">
         <v>4.0000000000000001E-3</v>
@@ -4247,8 +4247,8 @@
       <c r="J56">
         <v>2864</v>
       </c>
-      <c r="K56">
-        <v>22.58</v>
+      <c r="K56" s="3">
+        <v>0.22579999999999997</v>
       </c>
       <c r="L56" s="3">
         <v>4.0000000000000001E-3</v>
@@ -4301,8 +4301,8 @@
       <c r="J57">
         <v>2864</v>
       </c>
-      <c r="K57">
-        <v>22.58</v>
+      <c r="K57" s="3">
+        <v>0.22579999999999997</v>
       </c>
       <c r="L57" s="3">
         <v>4.0000000000000001E-3</v>
@@ -4355,8 +4355,8 @@
       <c r="J58">
         <v>2864</v>
       </c>
-      <c r="K58">
-        <v>22.58</v>
+      <c r="K58" s="3">
+        <v>0.22579999999999997</v>
       </c>
       <c r="L58" s="3">
         <v>4.0000000000000001E-3</v>
@@ -4409,8 +4409,8 @@
       <c r="J59">
         <v>2864</v>
       </c>
-      <c r="K59">
-        <v>22.58</v>
+      <c r="K59" s="3">
+        <v>0.22579999999999997</v>
       </c>
       <c r="L59" s="3">
         <v>4.0000000000000001E-3</v>
@@ -4463,8 +4463,8 @@
       <c r="J60">
         <v>2969</v>
       </c>
-      <c r="K60">
-        <v>21.71</v>
+      <c r="K60" s="3">
+        <v>0.21710000000000002</v>
       </c>
       <c r="L60" s="3">
         <v>2.8000000000000004E-3</v>
@@ -4517,8 +4517,8 @@
       <c r="J61">
         <v>2969</v>
       </c>
-      <c r="K61">
-        <v>21.71</v>
+      <c r="K61" s="3">
+        <v>0.21710000000000002</v>
       </c>
       <c r="L61" s="3">
         <v>2.8000000000000004E-3</v>
@@ -4571,8 +4571,8 @@
       <c r="J62">
         <v>2969</v>
       </c>
-      <c r="K62">
-        <v>21.71</v>
+      <c r="K62" s="3">
+        <v>0.21710000000000002</v>
       </c>
       <c r="L62" s="3">
         <v>2.8000000000000004E-3</v>
@@ -4625,8 +4625,8 @@
       <c r="J63">
         <v>2969</v>
       </c>
-      <c r="K63">
-        <v>21.71</v>
+      <c r="K63" s="3">
+        <v>0.21710000000000002</v>
       </c>
       <c r="L63" s="3">
         <v>2.8000000000000004E-3</v>
@@ -4679,8 +4679,8 @@
       <c r="J64">
         <v>2969</v>
       </c>
-      <c r="K64">
-        <v>21.71</v>
+      <c r="K64" s="3">
+        <v>0.21710000000000002</v>
       </c>
       <c r="L64" s="3">
         <v>2.8000000000000004E-3</v>
@@ -4733,8 +4733,8 @@
       <c r="J65">
         <v>3111</v>
       </c>
-      <c r="K65">
-        <v>23.12</v>
+      <c r="K65" s="3">
+        <v>0.23120000000000002</v>
       </c>
       <c r="L65" s="3">
         <v>3.2000000000000002E-3</v>
@@ -4787,8 +4787,8 @@
       <c r="J66">
         <v>3111</v>
       </c>
-      <c r="K66">
-        <v>23.12</v>
+      <c r="K66" s="3">
+        <v>0.23120000000000002</v>
       </c>
       <c r="L66" s="3">
         <v>3.2000000000000002E-3</v>
@@ -4841,8 +4841,8 @@
       <c r="J67">
         <v>3111</v>
       </c>
-      <c r="K67">
-        <v>23.12</v>
+      <c r="K67" s="3">
+        <v>0.23120000000000002</v>
       </c>
       <c r="L67" s="3">
         <v>3.2000000000000002E-3</v>
@@ -4895,8 +4895,8 @@
       <c r="J68">
         <v>3111</v>
       </c>
-      <c r="K68">
-        <v>23.12</v>
+      <c r="K68" s="3">
+        <v>0.23120000000000002</v>
       </c>
       <c r="L68" s="3">
         <v>3.2000000000000002E-3</v>
@@ -4949,8 +4949,8 @@
       <c r="J69">
         <v>3111</v>
       </c>
-      <c r="K69">
-        <v>23.12</v>
+      <c r="K69" s="3">
+        <v>0.23120000000000002</v>
       </c>
       <c r="L69" s="3">
         <v>3.2000000000000002E-3</v>
@@ -5003,8 +5003,8 @@
       <c r="J70">
         <v>3111</v>
       </c>
-      <c r="K70">
-        <v>23.12</v>
+      <c r="K70" s="3">
+        <v>0.23120000000000002</v>
       </c>
       <c r="L70" s="3">
         <v>3.2000000000000002E-3</v>
@@ -5057,8 +5057,8 @@
       <c r="J71">
         <v>2151</v>
       </c>
-      <c r="K71">
-        <v>21.81</v>
+      <c r="K71" s="3">
+        <v>0.21809999999999999</v>
       </c>
       <c r="L71" s="3">
         <v>2.7000000000000001E-3</v>
@@ -5111,8 +5111,8 @@
       <c r="J72">
         <v>2151</v>
       </c>
-      <c r="K72">
-        <v>21.81</v>
+      <c r="K72" s="3">
+        <v>0.21809999999999999</v>
       </c>
       <c r="L72" s="3">
         <v>2.7000000000000001E-3</v>
@@ -5165,8 +5165,8 @@
       <c r="J73">
         <v>2151</v>
       </c>
-      <c r="K73">
-        <v>21.81</v>
+      <c r="K73" s="3">
+        <v>0.21809999999999999</v>
       </c>
       <c r="L73" s="3">
         <v>2.7000000000000001E-3</v>
@@ -5219,8 +5219,8 @@
       <c r="J74">
         <v>2151</v>
       </c>
-      <c r="K74">
-        <v>21.81</v>
+      <c r="K74" s="3">
+        <v>0.21809999999999999</v>
       </c>
       <c r="L74" s="3">
         <v>2.7000000000000001E-3</v>
@@ -5273,8 +5273,8 @@
       <c r="J75">
         <v>2151</v>
       </c>
-      <c r="K75">
-        <v>21.81</v>
+      <c r="K75" s="3">
+        <v>0.21809999999999999</v>
       </c>
       <c r="L75" s="3">
         <v>2.7000000000000001E-3</v>
@@ -5327,8 +5327,8 @@
       <c r="J76">
         <v>2042</v>
       </c>
-      <c r="K76">
-        <v>23.06</v>
+      <c r="K76" s="3">
+        <v>0.2306</v>
       </c>
       <c r="L76" s="3">
         <v>2.8000000000000004E-3</v>
@@ -5381,8 +5381,8 @@
       <c r="J77">
         <v>2042</v>
       </c>
-      <c r="K77">
-        <v>23.06</v>
+      <c r="K77" s="3">
+        <v>0.2306</v>
       </c>
       <c r="L77" s="3">
         <v>2.8000000000000004E-3</v>
@@ -5435,8 +5435,8 @@
       <c r="J78">
         <v>2042</v>
       </c>
-      <c r="K78">
-        <v>23.06</v>
+      <c r="K78" s="3">
+        <v>0.2306</v>
       </c>
       <c r="L78" s="3">
         <v>2.8000000000000004E-3</v>
@@ -5489,8 +5489,8 @@
       <c r="J79">
         <v>2042</v>
       </c>
-      <c r="K79">
-        <v>23.06</v>
+      <c r="K79" s="3">
+        <v>0.2306</v>
       </c>
       <c r="L79" s="3">
         <v>2.8000000000000004E-3</v>
@@ -5543,8 +5543,8 @@
       <c r="J80">
         <v>2042</v>
       </c>
-      <c r="K80">
-        <v>23.06</v>
+      <c r="K80" s="3">
+        <v>0.2306</v>
       </c>
       <c r="L80" s="3">
         <v>2.8000000000000004E-3</v>
@@ -5597,8 +5597,8 @@
       <c r="J81">
         <v>2042</v>
       </c>
-      <c r="K81">
-        <v>23.06</v>
+      <c r="K81" s="3">
+        <v>0.2306</v>
       </c>
       <c r="L81" s="3">
         <v>2.8000000000000004E-3</v>
@@ -5651,8 +5651,8 @@
       <c r="J82">
         <v>1827</v>
       </c>
-      <c r="K82">
-        <v>20.21</v>
+      <c r="K82" s="3">
+        <v>0.2021</v>
       </c>
       <c r="L82" s="3">
         <v>2.5000000000000001E-3</v>
@@ -5705,8 +5705,8 @@
       <c r="J83">
         <v>1827</v>
       </c>
-      <c r="K83">
-        <v>20.21</v>
+      <c r="K83" s="3">
+        <v>0.2021</v>
       </c>
       <c r="L83" s="3">
         <v>2.5000000000000001E-3</v>
@@ -5759,8 +5759,8 @@
       <c r="J84">
         <v>1827</v>
       </c>
-      <c r="K84">
-        <v>20.21</v>
+      <c r="K84" s="3">
+        <v>0.2021</v>
       </c>
       <c r="L84" s="3">
         <v>2.5000000000000001E-3</v>
@@ -5813,8 +5813,8 @@
       <c r="J85">
         <v>1827</v>
       </c>
-      <c r="K85">
-        <v>20.21</v>
+      <c r="K85" s="3">
+        <v>0.2021</v>
       </c>
       <c r="L85" s="3">
         <v>2.5000000000000001E-3</v>
@@ -5867,8 +5867,8 @@
       <c r="J86">
         <v>2887</v>
       </c>
-      <c r="K86">
-        <v>25.44</v>
+      <c r="K86" s="3">
+        <v>0.25440000000000002</v>
       </c>
       <c r="L86" s="3">
         <v>2.7000000000000001E-3</v>
@@ -5921,8 +5921,8 @@
       <c r="J87">
         <v>2887</v>
       </c>
-      <c r="K87">
-        <v>25.44</v>
+      <c r="K87" s="3">
+        <v>0.25440000000000002</v>
       </c>
       <c r="L87" s="3">
         <v>2.7000000000000001E-3</v>
@@ -5975,8 +5975,8 @@
       <c r="J88">
         <v>2887</v>
       </c>
-      <c r="K88">
-        <v>25.44</v>
+      <c r="K88" s="3">
+        <v>0.25440000000000002</v>
       </c>
       <c r="L88" s="3">
         <v>2.7000000000000001E-3</v>
@@ -6029,8 +6029,8 @@
       <c r="J89">
         <v>2887</v>
       </c>
-      <c r="K89">
-        <v>25.44</v>
+      <c r="K89" s="3">
+        <v>0.25440000000000002</v>
       </c>
       <c r="L89" s="3">
         <v>2.7000000000000001E-3</v>
@@ -6083,8 +6083,8 @@
       <c r="J90">
         <v>2887</v>
       </c>
-      <c r="K90">
-        <v>25.44</v>
+      <c r="K90" s="3">
+        <v>0.25440000000000002</v>
       </c>
       <c r="L90" s="3">
         <v>2.7000000000000001E-3</v>
@@ -6137,8 +6137,8 @@
       <c r="J91">
         <v>2285</v>
       </c>
-      <c r="K91">
-        <v>20.86</v>
+      <c r="K91" s="3">
+        <v>0.20860000000000001</v>
       </c>
       <c r="L91" s="3">
         <v>2.5000000000000001E-3</v>
@@ -6191,8 +6191,8 @@
       <c r="J92">
         <v>2285</v>
       </c>
-      <c r="K92">
-        <v>20.86</v>
+      <c r="K92" s="3">
+        <v>0.20860000000000001</v>
       </c>
       <c r="L92" s="3">
         <v>2.5000000000000001E-3</v>
@@ -6245,8 +6245,8 @@
       <c r="J93">
         <v>2285</v>
       </c>
-      <c r="K93">
-        <v>20.86</v>
+      <c r="K93" s="3">
+        <v>0.20860000000000001</v>
       </c>
       <c r="L93" s="3">
         <v>2.5000000000000001E-3</v>
@@ -6299,8 +6299,8 @@
       <c r="J94">
         <v>2285</v>
       </c>
-      <c r="K94">
-        <v>20.86</v>
+      <c r="K94" s="3">
+        <v>0.20860000000000001</v>
       </c>
       <c r="L94" s="3">
         <v>2.5000000000000001E-3</v>
@@ -6353,8 +6353,8 @@
       <c r="J95">
         <v>2217</v>
       </c>
-      <c r="K95">
-        <v>23.49</v>
+      <c r="K95" s="3">
+        <v>0.2349</v>
       </c>
       <c r="L95" s="3">
         <v>3.8E-3</v>
@@ -6407,8 +6407,8 @@
       <c r="J96">
         <v>2217</v>
       </c>
-      <c r="K96">
-        <v>23.49</v>
+      <c r="K96" s="3">
+        <v>0.2349</v>
       </c>
       <c r="L96" s="3">
         <v>3.8E-3</v>
@@ -6461,8 +6461,8 @@
       <c r="J97">
         <v>2217</v>
       </c>
-      <c r="K97">
-        <v>23.49</v>
+      <c r="K97" s="3">
+        <v>0.2349</v>
       </c>
       <c r="L97" s="3">
         <v>3.8E-3</v>
@@ -6515,8 +6515,8 @@
       <c r="J98">
         <v>2217</v>
       </c>
-      <c r="K98">
-        <v>23.49</v>
+      <c r="K98" s="3">
+        <v>0.2349</v>
       </c>
       <c r="L98" s="3">
         <v>3.8E-3</v>
@@ -6569,8 +6569,8 @@
       <c r="J99">
         <v>2217</v>
       </c>
-      <c r="K99">
-        <v>23.49</v>
+      <c r="K99" s="3">
+        <v>0.2349</v>
       </c>
       <c r="L99" s="3">
         <v>3.8E-3</v>
@@ -6623,8 +6623,8 @@
       <c r="J100">
         <v>3048</v>
       </c>
-      <c r="K100">
-        <v>19.82</v>
+      <c r="K100" s="3">
+        <v>0.19820000000000002</v>
       </c>
       <c r="L100" s="3">
         <v>2.0999999999999999E-3</v>
@@ -6677,8 +6677,8 @@
       <c r="J101">
         <v>3048</v>
       </c>
-      <c r="K101">
-        <v>19.82</v>
+      <c r="K101" s="3">
+        <v>0.19820000000000002</v>
       </c>
       <c r="L101" s="3">
         <v>2.0999999999999999E-3</v>
@@ -6731,8 +6731,8 @@
       <c r="J102">
         <v>3048</v>
       </c>
-      <c r="K102">
-        <v>19.82</v>
+      <c r="K102" s="3">
+        <v>0.19820000000000002</v>
       </c>
       <c r="L102" s="3">
         <v>2.0999999999999999E-3</v>
@@ -6785,8 +6785,8 @@
       <c r="J103">
         <v>3048</v>
       </c>
-      <c r="K103">
-        <v>19.82</v>
+      <c r="K103" s="3">
+        <v>0.19820000000000002</v>
       </c>
       <c r="L103" s="3">
         <v>2.0999999999999999E-3</v>
@@ -6839,8 +6839,8 @@
       <c r="J104">
         <v>2028</v>
       </c>
-      <c r="K104">
-        <v>22.29</v>
+      <c r="K104" s="3">
+        <v>0.22289999999999999</v>
       </c>
       <c r="L104" s="3">
         <v>2.2000000000000001E-3</v>
@@ -6893,8 +6893,8 @@
       <c r="J105">
         <v>2028</v>
       </c>
-      <c r="K105">
-        <v>22.29</v>
+      <c r="K105" s="3">
+        <v>0.22289999999999999</v>
       </c>
       <c r="L105" s="3">
         <v>2.2000000000000001E-3</v>
@@ -6947,8 +6947,8 @@
       <c r="J106">
         <v>2028</v>
       </c>
-      <c r="K106">
-        <v>22.29</v>
+      <c r="K106" s="3">
+        <v>0.22289999999999999</v>
       </c>
       <c r="L106" s="3">
         <v>2.2000000000000001E-3</v>
@@ -7001,8 +7001,8 @@
       <c r="J107">
         <v>2028</v>
       </c>
-      <c r="K107">
-        <v>22.29</v>
+      <c r="K107" s="3">
+        <v>0.22289999999999999</v>
       </c>
       <c r="L107" s="3">
         <v>2.2000000000000001E-3</v>
@@ -7055,8 +7055,8 @@
       <c r="J108">
         <v>2028</v>
       </c>
-      <c r="K108">
-        <v>22.29</v>
+      <c r="K108" s="3">
+        <v>0.22289999999999999</v>
       </c>
       <c r="L108" s="3">
         <v>2.2000000000000001E-3</v>
@@ -7109,8 +7109,8 @@
       <c r="J109">
         <v>2616</v>
       </c>
-      <c r="K109">
-        <v>20.5</v>
+      <c r="K109" s="3">
+        <v>0.20499999999999999</v>
       </c>
       <c r="L109" s="3">
         <v>2.8000000000000004E-3</v>
@@ -7163,8 +7163,8 @@
       <c r="J110">
         <v>2616</v>
       </c>
-      <c r="K110">
-        <v>20.5</v>
+      <c r="K110" s="3">
+        <v>0.20499999999999999</v>
       </c>
       <c r="L110" s="3">
         <v>2.8000000000000004E-3</v>
@@ -7217,8 +7217,8 @@
       <c r="J111">
         <v>2616</v>
       </c>
-      <c r="K111">
-        <v>20.5</v>
+      <c r="K111" s="3">
+        <v>0.20499999999999999</v>
       </c>
       <c r="L111" s="3">
         <v>2.8000000000000004E-3</v>
@@ -7271,8 +7271,8 @@
       <c r="J112">
         <v>2616</v>
       </c>
-      <c r="K112">
-        <v>20.5</v>
+      <c r="K112" s="3">
+        <v>0.20499999999999999</v>
       </c>
       <c r="L112" s="3">
         <v>2.8000000000000004E-3</v>
@@ -7325,8 +7325,8 @@
       <c r="J113">
         <v>4351</v>
       </c>
-      <c r="K113">
-        <v>23.13</v>
+      <c r="K113" s="3">
+        <v>0.23129999999999998</v>
       </c>
       <c r="L113" s="3">
         <v>3.7000000000000002E-3</v>
@@ -7379,8 +7379,8 @@
       <c r="J114">
         <v>4351</v>
       </c>
-      <c r="K114">
-        <v>23.13</v>
+      <c r="K114" s="3">
+        <v>0.23129999999999998</v>
       </c>
       <c r="L114" s="3">
         <v>3.7000000000000002E-3</v>
@@ -7433,8 +7433,8 @@
       <c r="J115">
         <v>4351</v>
       </c>
-      <c r="K115">
-        <v>23.13</v>
+      <c r="K115" s="3">
+        <v>0.23129999999999998</v>
       </c>
       <c r="L115" s="3">
         <v>3.7000000000000002E-3</v>
@@ -7487,8 +7487,8 @@
       <c r="J116">
         <v>4351</v>
       </c>
-      <c r="K116">
-        <v>23.13</v>
+      <c r="K116" s="3">
+        <v>0.23129999999999998</v>
       </c>
       <c r="L116" s="3">
         <v>3.7000000000000002E-3</v>
@@ -7541,8 +7541,8 @@
       <c r="J117">
         <v>4351</v>
       </c>
-      <c r="K117">
-        <v>23.13</v>
+      <c r="K117" s="3">
+        <v>0.23129999999999998</v>
       </c>
       <c r="L117" s="3">
         <v>3.7000000000000002E-3</v>
@@ -7595,8 +7595,8 @@
       <c r="J118">
         <v>4351</v>
       </c>
-      <c r="K118">
-        <v>23.13</v>
+      <c r="K118" s="3">
+        <v>0.23129999999999998</v>
       </c>
       <c r="L118" s="3">
         <v>3.7000000000000002E-3</v>
@@ -7649,8 +7649,8 @@
       <c r="J119">
         <v>3067</v>
       </c>
-      <c r="K119">
-        <v>21.73</v>
+      <c r="K119" s="3">
+        <v>0.21729999999999999</v>
       </c>
       <c r="L119" s="3">
         <v>2.5000000000000001E-3</v>
@@ -7703,8 +7703,8 @@
       <c r="J120">
         <v>3067</v>
       </c>
-      <c r="K120">
-        <v>21.73</v>
+      <c r="K120" s="3">
+        <v>0.21729999999999999</v>
       </c>
       <c r="L120" s="3">
         <v>2.5000000000000001E-3</v>
@@ -7757,8 +7757,8 @@
       <c r="J121">
         <v>3067</v>
       </c>
-      <c r="K121">
-        <v>21.73</v>
+      <c r="K121" s="3">
+        <v>0.21729999999999999</v>
       </c>
       <c r="L121" s="3">
         <v>2.5000000000000001E-3</v>
@@ -7811,8 +7811,8 @@
       <c r="J122">
         <v>3067</v>
       </c>
-      <c r="K122">
-        <v>21.73</v>
+      <c r="K122" s="3">
+        <v>0.21729999999999999</v>
       </c>
       <c r="L122" s="3">
         <v>2.5000000000000001E-3</v>
@@ -7865,8 +7865,8 @@
       <c r="J123">
         <v>3067</v>
       </c>
-      <c r="K123">
-        <v>21.73</v>
+      <c r="K123" s="3">
+        <v>0.21729999999999999</v>
       </c>
       <c r="L123" s="3">
         <v>2.5000000000000001E-3</v>
@@ -7919,8 +7919,8 @@
       <c r="J124">
         <v>3067</v>
       </c>
-      <c r="K124">
-        <v>21.73</v>
+      <c r="K124" s="3">
+        <v>0.21729999999999999</v>
       </c>
       <c r="L124" s="3">
         <v>2.5000000000000001E-3</v>
@@ -7973,8 +7973,8 @@
       <c r="J125">
         <v>3067</v>
       </c>
-      <c r="K125">
-        <v>21.73</v>
+      <c r="K125" s="3">
+        <v>0.21729999999999999</v>
       </c>
       <c r="L125" s="3">
         <v>2.5000000000000001E-3</v>
@@ -8027,8 +8027,8 @@
       <c r="J126">
         <v>2153</v>
       </c>
-      <c r="K126">
-        <v>20.18</v>
+      <c r="K126" s="3">
+        <v>0.20180000000000001</v>
       </c>
       <c r="L126" s="3">
         <v>3.0000000000000001E-3</v>
@@ -8081,8 +8081,8 @@
       <c r="J127">
         <v>2153</v>
       </c>
-      <c r="K127">
-        <v>20.18</v>
+      <c r="K127" s="3">
+        <v>0.20180000000000001</v>
       </c>
       <c r="L127" s="3">
         <v>3.0000000000000001E-3</v>
@@ -8135,8 +8135,8 @@
       <c r="J128">
         <v>2153</v>
       </c>
-      <c r="K128">
-        <v>20.18</v>
+      <c r="K128" s="3">
+        <v>0.20180000000000001</v>
       </c>
       <c r="L128" s="3">
         <v>3.0000000000000001E-3</v>
@@ -8189,8 +8189,8 @@
       <c r="J129">
         <v>2153</v>
       </c>
-      <c r="K129">
-        <v>20.18</v>
+      <c r="K129" s="3">
+        <v>0.20180000000000001</v>
       </c>
       <c r="L129" s="3">
         <v>3.0000000000000001E-3</v>
@@ -8243,8 +8243,8 @@
       <c r="J130">
         <v>2153</v>
       </c>
-      <c r="K130">
-        <v>20.18</v>
+      <c r="K130" s="3">
+        <v>0.20180000000000001</v>
       </c>
       <c r="L130" s="3">
         <v>3.0000000000000001E-3</v>
@@ -8297,8 +8297,8 @@
       <c r="J131">
         <v>1876</v>
       </c>
-      <c r="K131">
-        <v>21.7</v>
+      <c r="K131" s="3">
+        <v>0.217</v>
       </c>
       <c r="L131" s="3">
         <v>3.4999999999999996E-3</v>
@@ -8351,8 +8351,8 @@
       <c r="J132">
         <v>1876</v>
       </c>
-      <c r="K132">
-        <v>21.7</v>
+      <c r="K132" s="3">
+        <v>0.217</v>
       </c>
       <c r="L132" s="3">
         <v>3.4999999999999996E-3</v>
@@ -8405,8 +8405,8 @@
       <c r="J133">
         <v>1876</v>
       </c>
-      <c r="K133">
-        <v>21.7</v>
+      <c r="K133" s="3">
+        <v>0.217</v>
       </c>
       <c r="L133" s="3">
         <v>3.4999999999999996E-3</v>
@@ -8459,8 +8459,8 @@
       <c r="J134">
         <v>1876</v>
       </c>
-      <c r="K134">
-        <v>21.7</v>
+      <c r="K134" s="3">
+        <v>0.217</v>
       </c>
       <c r="L134" s="3">
         <v>3.4999999999999996E-3</v>
@@ -8513,8 +8513,8 @@
       <c r="J135">
         <v>1876</v>
       </c>
-      <c r="K135">
-        <v>21.7</v>
+      <c r="K135" s="3">
+        <v>0.217</v>
       </c>
       <c r="L135" s="3">
         <v>3.4999999999999996E-3</v>
@@ -8567,8 +8567,8 @@
       <c r="J136">
         <v>2632</v>
       </c>
-      <c r="K136">
-        <v>20.82</v>
+      <c r="K136" s="3">
+        <v>0.2082</v>
       </c>
       <c r="L136" s="3">
         <v>3.0000000000000001E-3</v>
@@ -8621,8 +8621,8 @@
       <c r="J137">
         <v>2632</v>
       </c>
-      <c r="K137">
-        <v>20.82</v>
+      <c r="K137" s="3">
+        <v>0.2082</v>
       </c>
       <c r="L137" s="3">
         <v>3.0000000000000001E-3</v>
@@ -8675,8 +8675,8 @@
       <c r="J138">
         <v>2632</v>
       </c>
-      <c r="K138">
-        <v>20.82</v>
+      <c r="K138" s="3">
+        <v>0.2082</v>
       </c>
       <c r="L138" s="3">
         <v>3.0000000000000001E-3</v>
@@ -8729,8 +8729,8 @@
       <c r="J139">
         <v>2632</v>
       </c>
-      <c r="K139">
-        <v>20.82</v>
+      <c r="K139" s="3">
+        <v>0.2082</v>
       </c>
       <c r="L139" s="3">
         <v>3.0000000000000001E-3</v>
@@ -8783,8 +8783,8 @@
       <c r="J140">
         <v>2065</v>
       </c>
-      <c r="K140">
-        <v>18.920000000000002</v>
+      <c r="K140" s="3">
+        <v>0.18920000000000001</v>
       </c>
       <c r="L140" s="3">
         <v>3.2000000000000002E-3</v>
@@ -8837,8 +8837,8 @@
       <c r="J141">
         <v>2065</v>
       </c>
-      <c r="K141">
-        <v>18.920000000000002</v>
+      <c r="K141" s="3">
+        <v>0.18920000000000001</v>
       </c>
       <c r="L141" s="3">
         <v>3.2000000000000002E-3</v>
@@ -8891,8 +8891,8 @@
       <c r="J142">
         <v>2065</v>
       </c>
-      <c r="K142">
-        <v>18.920000000000002</v>
+      <c r="K142" s="3">
+        <v>0.18920000000000001</v>
       </c>
       <c r="L142" s="3">
         <v>3.2000000000000002E-3</v>
@@ -8945,8 +8945,8 @@
       <c r="J143">
         <v>2065</v>
       </c>
-      <c r="K143">
-        <v>18.920000000000002</v>
+      <c r="K143" s="3">
+        <v>0.18920000000000001</v>
       </c>
       <c r="L143" s="3">
         <v>3.2000000000000002E-3</v>
@@ -8999,8 +8999,8 @@
       <c r="J144">
         <v>1799</v>
       </c>
-      <c r="K144">
-        <v>21.89</v>
+      <c r="K144" s="3">
+        <v>0.21890000000000001</v>
       </c>
       <c r="L144" s="3">
         <v>2E-3</v>
@@ -9053,8 +9053,8 @@
       <c r="J145">
         <v>1799</v>
       </c>
-      <c r="K145">
-        <v>21.89</v>
+      <c r="K145" s="3">
+        <v>0.21890000000000001</v>
       </c>
       <c r="L145" s="3">
         <v>2E-3</v>
@@ -9107,8 +9107,8 @@
       <c r="J146">
         <v>1799</v>
       </c>
-      <c r="K146">
-        <v>21.89</v>
+      <c r="K146" s="3">
+        <v>0.21890000000000001</v>
       </c>
       <c r="L146" s="3">
         <v>2E-3</v>
@@ -9161,8 +9161,8 @@
       <c r="J147">
         <v>1799</v>
       </c>
-      <c r="K147">
-        <v>21.89</v>
+      <c r="K147" s="3">
+        <v>0.21890000000000001</v>
       </c>
       <c r="L147" s="3">
         <v>2E-3</v>
@@ -9215,8 +9215,8 @@
       <c r="J148">
         <v>1799</v>
       </c>
-      <c r="K148">
-        <v>21.89</v>
+      <c r="K148" s="3">
+        <v>0.21890000000000001</v>
       </c>
       <c r="L148" s="3">
         <v>2E-3</v>
@@ -9269,8 +9269,8 @@
       <c r="J149">
         <v>1799</v>
       </c>
-      <c r="K149">
-        <v>21.89</v>
+      <c r="K149" s="3">
+        <v>0.21890000000000001</v>
       </c>
       <c r="L149" s="3">
         <v>2E-3</v>
@@ -9323,8 +9323,8 @@
       <c r="J150">
         <v>1609</v>
       </c>
-      <c r="K150">
-        <v>20.61</v>
+      <c r="K150" s="3">
+        <v>0.20610000000000001</v>
       </c>
       <c r="L150" s="3">
         <v>4.1999999999999997E-3</v>
@@ -9377,8 +9377,8 @@
       <c r="J151">
         <v>1609</v>
       </c>
-      <c r="K151">
-        <v>20.61</v>
+      <c r="K151" s="3">
+        <v>0.20610000000000001</v>
       </c>
       <c r="L151" s="3">
         <v>4.1999999999999997E-3</v>
@@ -9431,8 +9431,8 @@
       <c r="J152">
         <v>1609</v>
       </c>
-      <c r="K152">
-        <v>20.61</v>
+      <c r="K152" s="3">
+        <v>0.20610000000000001</v>
       </c>
       <c r="L152" s="3">
         <v>4.1999999999999997E-3</v>
@@ -9485,8 +9485,8 @@
       <c r="J153">
         <v>1609</v>
       </c>
-      <c r="K153">
-        <v>20.61</v>
+      <c r="K153" s="3">
+        <v>0.20610000000000001</v>
       </c>
       <c r="L153" s="3">
         <v>4.1999999999999997E-3</v>
@@ -9539,8 +9539,8 @@
       <c r="J154">
         <v>1609</v>
       </c>
-      <c r="K154">
-        <v>20.61</v>
+      <c r="K154" s="3">
+        <v>0.20610000000000001</v>
       </c>
       <c r="L154" s="3">
         <v>4.1999999999999997E-3</v>
@@ -9593,8 +9593,8 @@
       <c r="J155">
         <v>3330</v>
       </c>
-      <c r="K155">
-        <v>22.87</v>
+      <c r="K155" s="3">
+        <v>0.22870000000000001</v>
       </c>
       <c r="L155" s="3">
         <v>3.3E-3</v>
@@ -9647,8 +9647,8 @@
       <c r="J156">
         <v>3330</v>
       </c>
-      <c r="K156">
-        <v>22.87</v>
+      <c r="K156" s="3">
+        <v>0.22870000000000001</v>
       </c>
       <c r="L156" s="3">
         <v>3.3E-3</v>
@@ -9701,8 +9701,8 @@
       <c r="J157">
         <v>3330</v>
       </c>
-      <c r="K157">
-        <v>22.87</v>
+      <c r="K157" s="3">
+        <v>0.22870000000000001</v>
       </c>
       <c r="L157" s="3">
         <v>3.3E-3</v>
@@ -9755,8 +9755,8 @@
       <c r="J158">
         <v>3330</v>
       </c>
-      <c r="K158">
-        <v>22.87</v>
+      <c r="K158" s="3">
+        <v>0.22870000000000001</v>
       </c>
       <c r="L158" s="3">
         <v>3.3E-3</v>
@@ -9809,8 +9809,8 @@
       <c r="J159">
         <v>3330</v>
       </c>
-      <c r="K159">
-        <v>22.87</v>
+      <c r="K159" s="3">
+        <v>0.22870000000000001</v>
       </c>
       <c r="L159" s="3">
         <v>3.3E-3</v>
@@ -9863,8 +9863,8 @@
       <c r="J160">
         <v>3330</v>
       </c>
-      <c r="K160">
-        <v>22.87</v>
+      <c r="K160" s="3">
+        <v>0.22870000000000001</v>
       </c>
       <c r="L160" s="3">
         <v>3.3E-3</v>
@@ -9917,8 +9917,8 @@
       <c r="J161">
         <v>1471</v>
       </c>
-      <c r="K161">
-        <v>19.16</v>
+      <c r="K161" s="3">
+        <v>0.19159999999999999</v>
       </c>
       <c r="L161" s="3">
         <v>5.0000000000000001E-3</v>
@@ -9971,8 +9971,8 @@
       <c r="J162">
         <v>1471</v>
       </c>
-      <c r="K162">
-        <v>19.16</v>
+      <c r="K162" s="3">
+        <v>0.19159999999999999</v>
       </c>
       <c r="L162" s="3">
         <v>5.0000000000000001E-3</v>
@@ -10025,8 +10025,8 @@
       <c r="J163">
         <v>1471</v>
       </c>
-      <c r="K163">
-        <v>19.16</v>
+      <c r="K163" s="3">
+        <v>0.19159999999999999</v>
       </c>
       <c r="L163" s="3">
         <v>5.0000000000000001E-3</v>
@@ -10079,8 +10079,8 @@
       <c r="J164">
         <v>1471</v>
       </c>
-      <c r="K164">
-        <v>19.16</v>
+      <c r="K164" s="3">
+        <v>0.19159999999999999</v>
       </c>
       <c r="L164" s="3">
         <v>5.0000000000000001E-3</v>
@@ -10133,8 +10133,8 @@
       <c r="J165">
         <v>1471</v>
       </c>
-      <c r="K165">
-        <v>19.16</v>
+      <c r="K165" s="3">
+        <v>0.19159999999999999</v>
       </c>
       <c r="L165" s="3">
         <v>5.0000000000000001E-3</v>
@@ -10187,8 +10187,8 @@
       <c r="J166">
         <v>1471</v>
       </c>
-      <c r="K166">
-        <v>19.16</v>
+      <c r="K166" s="3">
+        <v>0.19159999999999999</v>
       </c>
       <c r="L166" s="3">
         <v>5.0000000000000001E-3</v>
@@ -10241,8 +10241,8 @@
       <c r="J167">
         <v>1888</v>
       </c>
-      <c r="K167">
-        <v>20.149999999999999</v>
+      <c r="K167" s="3">
+        <v>0.20149999999999998</v>
       </c>
       <c r="L167" s="3">
         <v>6.7000000000000002E-3</v>
@@ -10295,8 +10295,8 @@
       <c r="J168">
         <v>1888</v>
       </c>
-      <c r="K168">
-        <v>20.149999999999999</v>
+      <c r="K168" s="3">
+        <v>0.20149999999999998</v>
       </c>
       <c r="L168" s="3">
         <v>6.7000000000000002E-3</v>
@@ -10349,8 +10349,8 @@
       <c r="J169">
         <v>1888</v>
       </c>
-      <c r="K169">
-        <v>20.149999999999999</v>
+      <c r="K169" s="3">
+        <v>0.20149999999999998</v>
       </c>
       <c r="L169" s="3">
         <v>6.7000000000000002E-3</v>
@@ -10403,8 +10403,8 @@
       <c r="J170">
         <v>1888</v>
       </c>
-      <c r="K170">
-        <v>20.149999999999999</v>
+      <c r="K170" s="3">
+        <v>0.20149999999999998</v>
       </c>
       <c r="L170" s="3">
         <v>6.7000000000000002E-3</v>
@@ -10457,8 +10457,8 @@
       <c r="J171">
         <v>1888</v>
       </c>
-      <c r="K171">
-        <v>20.149999999999999</v>
+      <c r="K171" s="3">
+        <v>0.20149999999999998</v>
       </c>
       <c r="L171" s="3">
         <v>6.7000000000000002E-3</v>
@@ -10511,8 +10511,8 @@
       <c r="J172">
         <v>2397</v>
       </c>
-      <c r="K172">
-        <v>21.75</v>
+      <c r="K172" s="3">
+        <v>0.2175</v>
       </c>
       <c r="L172" s="3">
         <v>4.8999999999999998E-3</v>
@@ -10565,8 +10565,8 @@
       <c r="J173">
         <v>2397</v>
       </c>
-      <c r="K173">
-        <v>21.75</v>
+      <c r="K173" s="3">
+        <v>0.2175</v>
       </c>
       <c r="L173" s="3">
         <v>4.8999999999999998E-3</v>
@@ -10619,8 +10619,8 @@
       <c r="J174">
         <v>2397</v>
       </c>
-      <c r="K174">
-        <v>21.75</v>
+      <c r="K174" s="3">
+        <v>0.2175</v>
       </c>
       <c r="L174" s="3">
         <v>4.8999999999999998E-3</v>
@@ -10673,8 +10673,8 @@
       <c r="J175">
         <v>2397</v>
       </c>
-      <c r="K175">
-        <v>21.75</v>
+      <c r="K175" s="3">
+        <v>0.2175</v>
       </c>
       <c r="L175" s="3">
         <v>4.8999999999999998E-3</v>
@@ -10727,8 +10727,8 @@
       <c r="J176">
         <v>2397</v>
       </c>
-      <c r="K176">
-        <v>21.75</v>
+      <c r="K176" s="3">
+        <v>0.2175</v>
       </c>
       <c r="L176" s="3">
         <v>4.8999999999999998E-3</v>
@@ -10781,8 +10781,8 @@
       <c r="J177">
         <v>2397</v>
       </c>
-      <c r="K177">
-        <v>21.75</v>
+      <c r="K177" s="3">
+        <v>0.2175</v>
       </c>
       <c r="L177" s="3">
         <v>4.8999999999999998E-3</v>
@@ -10835,8 +10835,8 @@
       <c r="J178">
         <v>2502</v>
       </c>
-      <c r="K178">
-        <v>21.36</v>
+      <c r="K178" s="3">
+        <v>0.21359999999999998</v>
       </c>
       <c r="L178" s="3">
         <v>6.6E-3</v>
@@ -10889,8 +10889,8 @@
       <c r="J179">
         <v>2502</v>
       </c>
-      <c r="K179">
-        <v>21.36</v>
+      <c r="K179" s="3">
+        <v>0.21359999999999998</v>
       </c>
       <c r="L179" s="3">
         <v>6.6E-3</v>
@@ -10943,8 +10943,8 @@
       <c r="J180">
         <v>2502</v>
       </c>
-      <c r="K180">
-        <v>21.36</v>
+      <c r="K180" s="3">
+        <v>0.21359999999999998</v>
       </c>
       <c r="L180" s="3">
         <v>6.6E-3</v>
@@ -10997,8 +10997,8 @@
       <c r="J181">
         <v>2502</v>
       </c>
-      <c r="K181">
-        <v>21.36</v>
+      <c r="K181" s="3">
+        <v>0.21359999999999998</v>
       </c>
       <c r="L181" s="3">
         <v>6.6E-3</v>
@@ -11051,8 +11051,8 @@
       <c r="J182">
         <v>2502</v>
       </c>
-      <c r="K182">
-        <v>21.36</v>
+      <c r="K182" s="3">
+        <v>0.21359999999999998</v>
       </c>
       <c r="L182" s="3">
         <v>6.6E-3</v>
@@ -11105,8 +11105,8 @@
       <c r="J183">
         <v>2502</v>
       </c>
-      <c r="K183">
-        <v>21.36</v>
+      <c r="K183" s="3">
+        <v>0.21359999999999998</v>
       </c>
       <c r="L183" s="3">
         <v>6.6E-3</v>
@@ -11159,8 +11159,8 @@
       <c r="J184">
         <v>2411</v>
       </c>
-      <c r="K184">
-        <v>20.75</v>
+      <c r="K184" s="3">
+        <v>0.20749999999999999</v>
       </c>
       <c r="L184" s="3">
         <v>6.0999999999999995E-3</v>
@@ -11213,8 +11213,8 @@
       <c r="J185">
         <v>2411</v>
       </c>
-      <c r="K185">
-        <v>20.75</v>
+      <c r="K185" s="3">
+        <v>0.20749999999999999</v>
       </c>
       <c r="L185" s="3">
         <v>6.0999999999999995E-3</v>
@@ -11267,8 +11267,8 @@
       <c r="J186">
         <v>2411</v>
       </c>
-      <c r="K186">
-        <v>20.75</v>
+      <c r="K186" s="3">
+        <v>0.20749999999999999</v>
       </c>
       <c r="L186" s="3">
         <v>6.0999999999999995E-3</v>
@@ -11321,8 +11321,8 @@
       <c r="J187">
         <v>2146</v>
       </c>
-      <c r="K187">
-        <v>24.28</v>
+      <c r="K187" s="3">
+        <v>0.24280000000000002</v>
       </c>
       <c r="L187" s="3">
         <v>3.7000000000000002E-3</v>
@@ -11375,8 +11375,8 @@
       <c r="J188">
         <v>2146</v>
       </c>
-      <c r="K188">
-        <v>24.28</v>
+      <c r="K188" s="3">
+        <v>0.24280000000000002</v>
       </c>
       <c r="L188" s="3">
         <v>3.7000000000000002E-3</v>
@@ -11429,8 +11429,8 @@
       <c r="J189">
         <v>2146</v>
       </c>
-      <c r="K189">
-        <v>24.28</v>
+      <c r="K189" s="3">
+        <v>0.24280000000000002</v>
       </c>
       <c r="L189" s="3">
         <v>3.7000000000000002E-3</v>
@@ -11483,8 +11483,8 @@
       <c r="J190">
         <v>2146</v>
       </c>
-      <c r="K190">
-        <v>24.28</v>
+      <c r="K190" s="3">
+        <v>0.24280000000000002</v>
       </c>
       <c r="L190" s="3">
         <v>3.7000000000000002E-3</v>
@@ -11537,8 +11537,8 @@
       <c r="J191">
         <v>2146</v>
       </c>
-      <c r="K191">
-        <v>24.28</v>
+      <c r="K191" s="3">
+        <v>0.24280000000000002</v>
       </c>
       <c r="L191" s="3">
         <v>3.7000000000000002E-3</v>
@@ -11591,8 +11591,8 @@
       <c r="J192">
         <v>1986</v>
       </c>
-      <c r="K192">
-        <v>23.07</v>
+      <c r="K192" s="3">
+        <v>0.23070000000000002</v>
       </c>
       <c r="L192" s="3">
         <v>5.7999999999999996E-3</v>
@@ -11645,8 +11645,8 @@
       <c r="J193">
         <v>1986</v>
       </c>
-      <c r="K193">
-        <v>23.07</v>
+      <c r="K193" s="3">
+        <v>0.23070000000000002</v>
       </c>
       <c r="L193" s="3">
         <v>5.7999999999999996E-3</v>
@@ -11699,8 +11699,8 @@
       <c r="J194">
         <v>1986</v>
       </c>
-      <c r="K194">
-        <v>23.07</v>
+      <c r="K194" s="3">
+        <v>0.23070000000000002</v>
       </c>
       <c r="L194" s="3">
         <v>5.7999999999999996E-3</v>
@@ -11753,8 +11753,8 @@
       <c r="J195">
         <v>1986</v>
       </c>
-      <c r="K195">
-        <v>23.07</v>
+      <c r="K195" s="3">
+        <v>0.23070000000000002</v>
       </c>
       <c r="L195" s="3">
         <v>5.7999999999999996E-3</v>
@@ -11807,8 +11807,8 @@
       <c r="J196">
         <v>1986</v>
       </c>
-      <c r="K196">
-        <v>23.07</v>
+      <c r="K196" s="3">
+        <v>0.23070000000000002</v>
       </c>
       <c r="L196" s="3">
         <v>5.7999999999999996E-3</v>
@@ -11861,8 +11861,8 @@
       <c r="J197">
         <v>1955</v>
       </c>
-      <c r="K197">
-        <v>19.57</v>
+      <c r="K197" s="3">
+        <v>0.19570000000000001</v>
       </c>
       <c r="L197" s="3">
         <v>4.3E-3</v>
@@ -11915,8 +11915,8 @@
       <c r="J198">
         <v>1955</v>
       </c>
-      <c r="K198">
-        <v>19.57</v>
+      <c r="K198" s="3">
+        <v>0.19570000000000001</v>
       </c>
       <c r="L198" s="3">
         <v>4.3E-3</v>
@@ -11969,8 +11969,8 @@
       <c r="J199">
         <v>1955</v>
       </c>
-      <c r="K199">
-        <v>19.57</v>
+      <c r="K199" s="3">
+        <v>0.19570000000000001</v>
       </c>
       <c r="L199" s="3">
         <v>4.3E-3</v>
@@ -12023,8 +12023,8 @@
       <c r="J200">
         <v>1955</v>
       </c>
-      <c r="K200">
-        <v>19.57</v>
+      <c r="K200" s="3">
+        <v>0.19570000000000001</v>
       </c>
       <c r="L200" s="3">
         <v>4.3E-3</v>
@@ -12077,8 +12077,8 @@
       <c r="J201">
         <v>1955</v>
       </c>
-      <c r="K201">
-        <v>19.57</v>
+      <c r="K201" s="3">
+        <v>0.19570000000000001</v>
       </c>
       <c r="L201" s="3">
         <v>4.3E-3</v>
@@ -12131,8 +12131,8 @@
       <c r="J202">
         <v>1955</v>
       </c>
-      <c r="K202">
-        <v>19.57</v>
+      <c r="K202" s="3">
+        <v>0.19570000000000001</v>
       </c>
       <c r="L202" s="3">
         <v>4.3E-3</v>
@@ -12185,8 +12185,8 @@
       <c r="J203">
         <v>2268</v>
       </c>
-      <c r="K203">
-        <v>18.77</v>
+      <c r="K203" s="3">
+        <v>0.18770000000000001</v>
       </c>
       <c r="L203" s="3">
         <v>5.3E-3</v>
@@ -12239,8 +12239,8 @@
       <c r="J204">
         <v>2268</v>
       </c>
-      <c r="K204">
-        <v>18.77</v>
+      <c r="K204" s="3">
+        <v>0.18770000000000001</v>
       </c>
       <c r="L204" s="3">
         <v>5.3E-3</v>
@@ -12293,8 +12293,8 @@
       <c r="J205">
         <v>2268</v>
       </c>
-      <c r="K205">
-        <v>18.77</v>
+      <c r="K205" s="3">
+        <v>0.18770000000000001</v>
       </c>
       <c r="L205" s="3">
         <v>5.3E-3</v>
@@ -12347,8 +12347,8 @@
       <c r="J206">
         <v>2268</v>
       </c>
-      <c r="K206">
-        <v>18.77</v>
+      <c r="K206" s="3">
+        <v>0.18770000000000001</v>
       </c>
       <c r="L206" s="3">
         <v>5.3E-3</v>
@@ -12401,8 +12401,8 @@
       <c r="J207">
         <v>2268</v>
       </c>
-      <c r="K207">
-        <v>18.77</v>
+      <c r="K207" s="3">
+        <v>0.18770000000000001</v>
       </c>
       <c r="L207" s="3">
         <v>5.3E-3</v>
@@ -12455,8 +12455,8 @@
       <c r="J208">
         <v>2318</v>
       </c>
-      <c r="K208">
-        <v>20.86</v>
+      <c r="K208" s="3">
+        <v>0.20860000000000001</v>
       </c>
       <c r="L208" s="3">
         <v>6.3E-3</v>
@@ -12509,8 +12509,8 @@
       <c r="J209">
         <v>2318</v>
       </c>
-      <c r="K209">
-        <v>20.86</v>
+      <c r="K209" s="3">
+        <v>0.20860000000000001</v>
       </c>
       <c r="L209" s="3">
         <v>6.3E-3</v>
@@ -12563,8 +12563,8 @@
       <c r="J210">
         <v>2318</v>
       </c>
-      <c r="K210">
-        <v>20.86</v>
+      <c r="K210" s="3">
+        <v>0.20860000000000001</v>
       </c>
       <c r="L210" s="3">
         <v>6.3E-3</v>
@@ -12617,8 +12617,8 @@
       <c r="J211">
         <v>2318</v>
       </c>
-      <c r="K211">
-        <v>20.86</v>
+      <c r="K211" s="3">
+        <v>0.20860000000000001</v>
       </c>
       <c r="L211" s="3">
         <v>6.3E-3</v>
@@ -12671,8 +12671,8 @@
       <c r="J212">
         <v>2318</v>
       </c>
-      <c r="K212">
-        <v>20.86</v>
+      <c r="K212" s="3">
+        <v>0.20860000000000001</v>
       </c>
       <c r="L212" s="3">
         <v>6.3E-3</v>
@@ -12725,8 +12725,8 @@
       <c r="J213">
         <v>2318</v>
       </c>
-      <c r="K213">
-        <v>20.86</v>
+      <c r="K213" s="3">
+        <v>0.20860000000000001</v>
       </c>
       <c r="L213" s="3">
         <v>6.3E-3</v>
@@ -12779,8 +12779,8 @@
       <c r="J214">
         <v>2318</v>
       </c>
-      <c r="K214">
-        <v>20.86</v>
+      <c r="K214" s="3">
+        <v>0.20860000000000001</v>
       </c>
       <c r="L214" s="3">
         <v>6.3E-3</v>
@@ -12833,8 +12833,8 @@
       <c r="J215">
         <v>2383</v>
       </c>
-      <c r="K215">
-        <v>24.98</v>
+      <c r="K215" s="3">
+        <v>0.24979999999999999</v>
       </c>
       <c r="L215" s="3">
         <v>5.6999999999999993E-3</v>
@@ -12887,8 +12887,8 @@
       <c r="J216">
         <v>2383</v>
       </c>
-      <c r="K216">
-        <v>24.98</v>
+      <c r="K216" s="3">
+        <v>0.24979999999999999</v>
       </c>
       <c r="L216" s="3">
         <v>5.6999999999999993E-3</v>
@@ -12941,8 +12941,8 @@
       <c r="J217">
         <v>2383</v>
       </c>
-      <c r="K217">
-        <v>24.98</v>
+      <c r="K217" s="3">
+        <v>0.24979999999999999</v>
       </c>
       <c r="L217" s="3">
         <v>5.6999999999999993E-3</v>
@@ -12995,8 +12995,8 @@
       <c r="J218">
         <v>2383</v>
       </c>
-      <c r="K218">
-        <v>24.98</v>
+      <c r="K218" s="3">
+        <v>0.24979999999999999</v>
       </c>
       <c r="L218" s="3">
         <v>5.6999999999999993E-3</v>
@@ -13049,8 +13049,8 @@
       <c r="J219">
         <v>3143</v>
       </c>
-      <c r="K219">
-        <v>23.74</v>
+      <c r="K219" s="3">
+        <v>0.23739999999999997</v>
       </c>
       <c r="L219" s="3">
         <v>3.7000000000000002E-3</v>
@@ -13103,8 +13103,8 @@
       <c r="J220">
         <v>3143</v>
       </c>
-      <c r="K220">
-        <v>23.74</v>
+      <c r="K220" s="3">
+        <v>0.23739999999999997</v>
       </c>
       <c r="L220" s="3">
         <v>3.7000000000000002E-3</v>
@@ -13157,8 +13157,8 @@
       <c r="J221">
         <v>3143</v>
       </c>
-      <c r="K221">
-        <v>23.74</v>
+      <c r="K221" s="3">
+        <v>0.23739999999999997</v>
       </c>
       <c r="L221" s="3">
         <v>3.7000000000000002E-3</v>
@@ -13211,8 +13211,8 @@
       <c r="J222">
         <v>3143</v>
       </c>
-      <c r="K222">
-        <v>23.74</v>
+      <c r="K222" s="3">
+        <v>0.23739999999999997</v>
       </c>
       <c r="L222" s="3">
         <v>3.7000000000000002E-3</v>
@@ -13265,8 +13265,8 @@
       <c r="J223">
         <v>3058</v>
       </c>
-      <c r="K223">
-        <v>23.02</v>
+      <c r="K223" s="3">
+        <v>0.23019999999999999</v>
       </c>
       <c r="L223" s="3">
         <v>4.0000000000000001E-3</v>
@@ -13319,8 +13319,8 @@
       <c r="J224">
         <v>3058</v>
       </c>
-      <c r="K224">
-        <v>23.02</v>
+      <c r="K224" s="3">
+        <v>0.23019999999999999</v>
       </c>
       <c r="L224" s="3">
         <v>4.0000000000000001E-3</v>
@@ -13373,8 +13373,8 @@
       <c r="J225">
         <v>3058</v>
       </c>
-      <c r="K225">
-        <v>23.02</v>
+      <c r="K225" s="3">
+        <v>0.23019999999999999</v>
       </c>
       <c r="L225" s="3">
         <v>4.0000000000000001E-3</v>
@@ -13427,8 +13427,8 @@
       <c r="J226">
         <v>3058</v>
       </c>
-      <c r="K226">
-        <v>23.02</v>
+      <c r="K226" s="3">
+        <v>0.23019999999999999</v>
       </c>
       <c r="L226" s="3">
         <v>4.0000000000000001E-3</v>

--- a/full_data.xlsx
+++ b/full_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bobenkom/Documents/GitHub/ElectionsResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A8B742B-2491-A943-B463-E10EAF86B612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF6C3F35-F804-C746-A2FA-EDCA60754F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="1100" windowWidth="28040" windowHeight="16900" xr2:uid="{9AB88D0F-77C1-C449-8FAF-524EB7C6B7A5}"/>
   </bookViews>
@@ -861,7 +861,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -869,6 +869,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -897,11 +903,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1222,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A91B907-88A9-CE40-8DC4-090F43831B04}">
   <dimension ref="A1:R226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:M226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1275,7 +1283,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1328,16 +1336,16 @@
       <c r="I2">
         <v>541</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>4883</v>
       </c>
-      <c r="K2" s="3">
-        <v>0.24309999999999998</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="K2" s="5">
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="L2" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="5">
         <v>2.8500000000000001E-2</v>
       </c>
       <c r="N2" t="s">
@@ -1382,16 +1390,16 @@
       <c r="I3">
         <v>541</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>4883</v>
       </c>
-      <c r="K3" s="3">
-        <v>0.24309999999999998</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="K3" s="5">
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="L3" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="5">
         <v>2.8500000000000001E-2</v>
       </c>
       <c r="N3" t="s">
@@ -1436,16 +1444,16 @@
       <c r="I4">
         <v>541</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>4883</v>
       </c>
-      <c r="K4" s="3">
-        <v>0.24309999999999998</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="K4" s="5">
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="L4" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="5">
         <v>2.8500000000000001E-2</v>
       </c>
       <c r="N4" t="s">
@@ -1490,16 +1498,16 @@
       <c r="I5">
         <v>541</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>4883</v>
       </c>
-      <c r="K5" s="3">
-        <v>0.24309999999999998</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="K5" s="5">
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="L5" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="5">
         <v>2.8500000000000001E-2</v>
       </c>
       <c r="N5" t="s">
@@ -1544,16 +1552,16 @@
       <c r="I6">
         <v>541</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>4883</v>
       </c>
-      <c r="K6" s="3">
-        <v>0.24309999999999998</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="K6" s="5">
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="L6" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="5">
         <v>2.8500000000000001E-2</v>
       </c>
       <c r="N6" t="s">
@@ -1598,16 +1606,16 @@
       <c r="I7">
         <v>595</v>
       </c>
-      <c r="J7">
-        <v>3108</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.2094</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="J7" s="4">
+        <v>3098</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="L7" s="5">
         <v>3.3E-3</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="5">
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="N7" t="s">
@@ -1652,16 +1660,16 @@
       <c r="I8">
         <v>595</v>
       </c>
-      <c r="J8">
-        <v>3108</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.2094</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="J8" s="4">
+        <v>3098</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="L8" s="5">
         <v>3.3E-3</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="5">
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="N8" t="s">
@@ -1706,16 +1714,16 @@
       <c r="I9">
         <v>595</v>
       </c>
-      <c r="J9">
-        <v>3108</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.2094</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="J9" s="4">
+        <v>3098</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="L9" s="5">
         <v>3.3E-3</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="5">
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="N9" t="s">
@@ -1760,16 +1768,16 @@
       <c r="I10">
         <v>595</v>
       </c>
-      <c r="J10">
-        <v>3108</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0.2094</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="J10" s="4">
+        <v>3098</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="L10" s="5">
         <v>3.3E-3</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="5">
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="N10" t="s">
@@ -1814,16 +1822,16 @@
       <c r="I11">
         <v>595</v>
       </c>
-      <c r="J11">
-        <v>3108</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.2094</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="J11" s="4">
+        <v>3098</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="L11" s="5">
         <v>3.3E-3</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="5">
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="N11" t="s">
@@ -1868,16 +1876,16 @@
       <c r="I12">
         <v>748</v>
       </c>
-      <c r="J12">
-        <v>2791</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0.20920000000000002</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="J12" s="4">
+        <v>2790</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.2092</v>
+      </c>
+      <c r="L12" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N12" t="s">
@@ -1922,16 +1930,16 @@
       <c r="I13">
         <v>748</v>
       </c>
-      <c r="J13">
-        <v>2791</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.20920000000000002</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="J13" s="4">
+        <v>2790</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.2092</v>
+      </c>
+      <c r="L13" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N13" t="s">
@@ -1976,16 +1984,16 @@
       <c r="I14">
         <v>748</v>
       </c>
-      <c r="J14">
-        <v>2791</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.20920000000000002</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="J14" s="4">
+        <v>2790</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.2092</v>
+      </c>
+      <c r="L14" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N14" t="s">
@@ -2030,16 +2038,16 @@
       <c r="I15">
         <v>748</v>
       </c>
-      <c r="J15">
-        <v>2791</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.20920000000000002</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="J15" s="4">
+        <v>2790</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.2092</v>
+      </c>
+      <c r="L15" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N15" t="s">
@@ -2084,17 +2092,17 @@
       <c r="I16">
         <v>705</v>
       </c>
-      <c r="J16">
-        <v>1889</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="J16" s="4">
+        <v>1884</v>
+      </c>
+      <c r="K16" s="5">
         <v>0.20949999999999999</v>
       </c>
-      <c r="L16" s="3">
-        <v>4.0999999999999995E-3</v>
-      </c>
-      <c r="M16" s="3">
-        <v>1.1000000000000001E-2</v>
+      <c r="L16" s="5">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1.09E-2</v>
       </c>
       <c r="N16" t="s">
         <v>258</v>
@@ -2138,17 +2146,17 @@
       <c r="I17">
         <v>705</v>
       </c>
-      <c r="J17">
-        <v>1889</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="J17" s="4">
+        <v>1884</v>
+      </c>
+      <c r="K17" s="5">
         <v>0.20949999999999999</v>
       </c>
-      <c r="L17" s="3">
-        <v>4.0999999999999995E-3</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1.1000000000000001E-2</v>
+      <c r="L17" s="5">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1.09E-2</v>
       </c>
       <c r="N17" t="s">
         <v>258</v>
@@ -2192,17 +2200,17 @@
       <c r="I18">
         <v>705</v>
       </c>
-      <c r="J18">
-        <v>1889</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="J18" s="4">
+        <v>1884</v>
+      </c>
+      <c r="K18" s="5">
         <v>0.20949999999999999</v>
       </c>
-      <c r="L18" s="3">
-        <v>4.0999999999999995E-3</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1.1000000000000001E-2</v>
+      <c r="L18" s="5">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1.09E-2</v>
       </c>
       <c r="N18" t="s">
         <v>258</v>
@@ -2246,17 +2254,17 @@
       <c r="I19">
         <v>705</v>
       </c>
-      <c r="J19">
-        <v>1889</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="J19" s="4">
+        <v>1884</v>
+      </c>
+      <c r="K19" s="5">
         <v>0.20949999999999999</v>
       </c>
-      <c r="L19" s="3">
-        <v>4.0999999999999995E-3</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1.1000000000000001E-2</v>
+      <c r="L19" s="5">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1.09E-2</v>
       </c>
       <c r="N19" t="s">
         <v>258</v>
@@ -2300,17 +2308,17 @@
       <c r="I20">
         <v>705</v>
       </c>
-      <c r="J20">
-        <v>1889</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="J20" s="4">
+        <v>1884</v>
+      </c>
+      <c r="K20" s="5">
         <v>0.20949999999999999</v>
       </c>
-      <c r="L20" s="3">
-        <v>4.0999999999999995E-3</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1.1000000000000001E-2</v>
+      <c r="L20" s="5">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1.09E-2</v>
       </c>
       <c r="N20" t="s">
         <v>257</v>
@@ -2354,16 +2362,16 @@
       <c r="I21">
         <v>626</v>
       </c>
-      <c r="J21">
-        <v>2597</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="J21" s="4">
+        <v>2595</v>
+      </c>
+      <c r="K21" s="5">
         <v>0.22159999999999999</v>
       </c>
-      <c r="L21" s="3">
-        <v>3.4999999999999996E-3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="L21" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M21" s="5">
         <v>1.46E-2</v>
       </c>
       <c r="N21" t="s">
@@ -2408,16 +2416,16 @@
       <c r="I22">
         <v>626</v>
       </c>
-      <c r="J22">
-        <v>2597</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J22" s="4">
+        <v>2595</v>
+      </c>
+      <c r="K22" s="5">
         <v>0.22159999999999999</v>
       </c>
-      <c r="L22" s="3">
-        <v>3.4999999999999996E-3</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="L22" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M22" s="5">
         <v>1.46E-2</v>
       </c>
       <c r="N22" t="s">
@@ -2462,16 +2470,16 @@
       <c r="I23">
         <v>626</v>
       </c>
-      <c r="J23">
-        <v>2597</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="J23" s="4">
+        <v>2595</v>
+      </c>
+      <c r="K23" s="5">
         <v>0.22159999999999999</v>
       </c>
-      <c r="L23" s="3">
-        <v>3.4999999999999996E-3</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="L23" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M23" s="5">
         <v>1.46E-2</v>
       </c>
       <c r="N23" t="s">
@@ -2516,16 +2524,16 @@
       <c r="I24">
         <v>626</v>
       </c>
-      <c r="J24">
-        <v>2597</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="J24" s="4">
+        <v>2595</v>
+      </c>
+      <c r="K24" s="5">
         <v>0.22159999999999999</v>
       </c>
-      <c r="L24" s="3">
-        <v>3.4999999999999996E-3</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="L24" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M24" s="5">
         <v>1.46E-2</v>
       </c>
       <c r="N24" t="s">
@@ -2570,17 +2578,17 @@
       <c r="I25">
         <v>623</v>
       </c>
-      <c r="J25">
-        <v>4373</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0.22559999999999999</v>
-      </c>
-      <c r="L25" s="3">
-        <v>3.4000000000000002E-3</v>
-      </c>
-      <c r="M25" s="3">
-        <v>2.3900000000000001E-2</v>
+      <c r="J25" s="4">
+        <v>4352</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="L25" s="5">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="M25" s="5">
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="N25" t="s">
         <v>257</v>
@@ -2624,17 +2632,17 @@
       <c r="I26">
         <v>623</v>
       </c>
-      <c r="J26">
-        <v>4373</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0.22559999999999999</v>
-      </c>
-      <c r="L26" s="3">
-        <v>3.4000000000000002E-3</v>
-      </c>
-      <c r="M26" s="3">
-        <v>2.3900000000000001E-2</v>
+      <c r="J26" s="4">
+        <v>4352</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="L26" s="5">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="M26" s="5">
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="N26" t="s">
         <v>258</v>
@@ -2678,17 +2686,17 @@
       <c r="I27">
         <v>623</v>
       </c>
-      <c r="J27">
-        <v>4373</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0.22559999999999999</v>
-      </c>
-      <c r="L27" s="3">
-        <v>3.4000000000000002E-3</v>
-      </c>
-      <c r="M27" s="3">
-        <v>2.3900000000000001E-2</v>
+      <c r="J27" s="4">
+        <v>4352</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="L27" s="5">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="M27" s="5">
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="N27" t="s">
         <v>258</v>
@@ -2732,17 +2740,17 @@
       <c r="I28">
         <v>623</v>
       </c>
-      <c r="J28">
-        <v>4373</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0.22559999999999999</v>
-      </c>
-      <c r="L28" s="3">
-        <v>3.4000000000000002E-3</v>
-      </c>
-      <c r="M28" s="3">
-        <v>2.3900000000000001E-2</v>
+      <c r="J28" s="4">
+        <v>4352</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="L28" s="5">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="M28" s="5">
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="N28" t="s">
         <v>258</v>
@@ -2786,17 +2794,17 @@
       <c r="I29">
         <v>623</v>
       </c>
-      <c r="J29">
-        <v>4373</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0.22559999999999999</v>
-      </c>
-      <c r="L29" s="3">
-        <v>3.4000000000000002E-3</v>
-      </c>
-      <c r="M29" s="3">
-        <v>2.3900000000000001E-2</v>
+      <c r="J29" s="4">
+        <v>4352</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="L29" s="5">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="M29" s="5">
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="N29" t="s">
         <v>258</v>
@@ -2840,16 +2848,16 @@
       <c r="I30">
         <v>787</v>
       </c>
-      <c r="J30">
-        <v>3537</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0.21309999999999998</v>
-      </c>
-      <c r="L30" s="3">
+      <c r="J30" s="4">
+        <v>3534</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="L30" s="5">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="5">
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="N30" t="s">
@@ -2894,16 +2902,16 @@
       <c r="I31">
         <v>787</v>
       </c>
-      <c r="J31">
-        <v>3537</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0.21309999999999998</v>
-      </c>
-      <c r="L31" s="3">
+      <c r="J31" s="4">
+        <v>3534</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="L31" s="5">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="5">
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="N31" t="s">
@@ -2948,16 +2956,16 @@
       <c r="I32">
         <v>787</v>
       </c>
-      <c r="J32">
-        <v>3537</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0.21309999999999998</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="J32" s="4">
+        <v>3534</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="L32" s="5">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="5">
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="N32" t="s">
@@ -3002,16 +3010,16 @@
       <c r="I33">
         <v>787</v>
       </c>
-      <c r="J33">
-        <v>3537</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0.21309999999999998</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="J33" s="4">
+        <v>3534</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="L33" s="5">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="5">
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="N33" t="s">
@@ -3056,16 +3064,16 @@
       <c r="I34">
         <v>787</v>
       </c>
-      <c r="J34">
-        <v>3537</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0.21309999999999998</v>
-      </c>
-      <c r="L34" s="3">
+      <c r="J34" s="4">
+        <v>3534</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="L34" s="5">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="5">
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="N34" t="s">
@@ -3110,17 +3118,17 @@
       <c r="I35">
         <v>734</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="4">
         <v>3479</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="5">
         <v>0.23230000000000001</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="5">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="M35" s="3">
-        <v>1.9799999999999998E-2</v>
+      <c r="M35" s="5">
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="N35" t="s">
         <v>257</v>
@@ -3164,17 +3172,17 @@
       <c r="I36">
         <v>734</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="4">
         <v>3479</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="5">
         <v>0.23230000000000001</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="5">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="M36" s="3">
-        <v>1.9799999999999998E-2</v>
+      <c r="M36" s="5">
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="N36" t="s">
         <v>258</v>
@@ -3218,17 +3226,17 @@
       <c r="I37">
         <v>734</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="4">
         <v>3479</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="5">
         <v>0.23230000000000001</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="5">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="M37" s="3">
-        <v>1.9799999999999998E-2</v>
+      <c r="M37" s="5">
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="N37" t="s">
         <v>258</v>
@@ -3272,17 +3280,17 @@
       <c r="I38">
         <v>734</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="4">
         <v>3479</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="5">
         <v>0.23230000000000001</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="5">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="M38" s="3">
-        <v>1.9799999999999998E-2</v>
+      <c r="M38" s="5">
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="N38" t="s">
         <v>258</v>
@@ -3326,17 +3334,17 @@
       <c r="I39">
         <v>734</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="4">
         <v>3479</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="5">
         <v>0.23230000000000001</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="5">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="M39" s="3">
-        <v>1.9799999999999998E-2</v>
+      <c r="M39" s="5">
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="N39" t="s">
         <v>258</v>
@@ -3380,17 +3388,17 @@
       <c r="I40">
         <v>734</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="4">
         <v>3479</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="5">
         <v>0.23230000000000001</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="5">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="M40" s="3">
-        <v>1.9799999999999998E-2</v>
+      <c r="M40" s="5">
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="N40" t="s">
         <v>258</v>
@@ -3434,17 +3442,17 @@
       <c r="I41">
         <v>705</v>
       </c>
-      <c r="J41">
-        <v>3248</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0.21859999999999999</v>
-      </c>
-      <c r="L41" s="3">
-        <v>3.9000000000000003E-3</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1.8200000000000001E-2</v>
+      <c r="J41" s="4">
+        <v>3235</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.2185</v>
+      </c>
+      <c r="L41" s="5">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="N41" t="s">
         <v>258</v>
@@ -3488,17 +3496,17 @@
       <c r="I42">
         <v>705</v>
       </c>
-      <c r="J42">
-        <v>3248</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0.21859999999999999</v>
-      </c>
-      <c r="L42" s="3">
-        <v>3.9000000000000003E-3</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1.8200000000000001E-2</v>
+      <c r="J42" s="4">
+        <v>3235</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.2185</v>
+      </c>
+      <c r="L42" s="5">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="M42" s="5">
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="N42" t="s">
         <v>258</v>
@@ -3542,17 +3550,17 @@
       <c r="I43">
         <v>705</v>
       </c>
-      <c r="J43">
-        <v>3248</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0.21859999999999999</v>
-      </c>
-      <c r="L43" s="3">
-        <v>3.9000000000000003E-3</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1.8200000000000001E-2</v>
+      <c r="J43" s="4">
+        <v>3235</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0.2185</v>
+      </c>
+      <c r="L43" s="5">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="M43" s="5">
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="N43" t="s">
         <v>258</v>
@@ -3596,17 +3604,17 @@
       <c r="I44">
         <v>705</v>
       </c>
-      <c r="J44">
-        <v>3248</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0.21859999999999999</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3.9000000000000003E-3</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1.8200000000000001E-2</v>
+      <c r="J44" s="4">
+        <v>3235</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.2185</v>
+      </c>
+      <c r="L44" s="5">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="M44" s="5">
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="N44" t="s">
         <v>258</v>
@@ -3650,17 +3658,17 @@
       <c r="I45">
         <v>705</v>
       </c>
-      <c r="J45">
-        <v>3248</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0.21859999999999999</v>
-      </c>
-      <c r="L45" s="3">
-        <v>3.9000000000000003E-3</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1.8200000000000001E-2</v>
+      <c r="J45" s="4">
+        <v>3235</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.2185</v>
+      </c>
+      <c r="L45" s="5">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="M45" s="5">
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="N45" t="s">
         <v>257</v>
@@ -3704,16 +3712,16 @@
       <c r="I46">
         <v>382</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="4">
         <v>3364</v>
       </c>
-      <c r="K46" s="3">
-        <v>0.21559999999999999</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="K46" s="5">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="L46" s="5">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="5">
         <v>1.9E-2</v>
       </c>
       <c r="N46" t="s">
@@ -3758,16 +3766,16 @@
       <c r="I47">
         <v>382</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="4">
         <v>3364</v>
       </c>
-      <c r="K47" s="3">
-        <v>0.21559999999999999</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="5">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="L47" s="5">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="5">
         <v>1.9E-2</v>
       </c>
       <c r="N47" t="s">
@@ -3812,16 +3820,16 @@
       <c r="I48">
         <v>382</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="4">
         <v>3364</v>
       </c>
-      <c r="K48" s="3">
-        <v>0.21559999999999999</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="K48" s="5">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="L48" s="5">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="5">
         <v>1.9E-2</v>
       </c>
       <c r="N48" t="s">
@@ -3866,16 +3874,16 @@
       <c r="I49">
         <v>382</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="4">
         <v>3364</v>
       </c>
-      <c r="K49" s="3">
-        <v>0.21559999999999999</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="K49" s="5">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="L49" s="5">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="5">
         <v>1.9E-2</v>
       </c>
       <c r="N49" t="s">
@@ -3920,16 +3928,16 @@
       <c r="I50">
         <v>382</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="4">
         <v>3364</v>
       </c>
-      <c r="K50" s="3">
-        <v>0.21559999999999999</v>
-      </c>
-      <c r="L50" s="3">
+      <c r="K50" s="5">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="L50" s="5">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="5">
         <v>1.9E-2</v>
       </c>
       <c r="N50" t="s">
@@ -3974,16 +3982,16 @@
       <c r="I51">
         <v>636</v>
       </c>
-      <c r="J51">
-        <v>2831</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0.20739999999999997</v>
-      </c>
-      <c r="L51" s="3">
+      <c r="J51" s="4">
+        <v>2828</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0.2074</v>
+      </c>
+      <c r="L51" s="5">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="5">
         <v>1.6E-2</v>
       </c>
       <c r="N51" t="s">
@@ -4028,16 +4036,16 @@
       <c r="I52">
         <v>636</v>
       </c>
-      <c r="J52">
-        <v>2831</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0.20739999999999997</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="J52" s="4">
+        <v>2828</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0.2074</v>
+      </c>
+      <c r="L52" s="5">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="5">
         <v>1.6E-2</v>
       </c>
       <c r="N52" t="s">
@@ -4082,16 +4090,16 @@
       <c r="I53">
         <v>636</v>
       </c>
-      <c r="J53">
-        <v>2831</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0.20739999999999997</v>
-      </c>
-      <c r="L53" s="3">
+      <c r="J53" s="4">
+        <v>2828</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0.2074</v>
+      </c>
+      <c r="L53" s="5">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="5">
         <v>1.6E-2</v>
       </c>
       <c r="N53" t="s">
@@ -4136,16 +4144,16 @@
       <c r="I54">
         <v>636</v>
       </c>
-      <c r="J54">
-        <v>2831</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0.20739999999999997</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="J54" s="4">
+        <v>2828</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0.2074</v>
+      </c>
+      <c r="L54" s="5">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="5">
         <v>1.6E-2</v>
       </c>
       <c r="N54" t="s">
@@ -4190,17 +4198,17 @@
       <c r="I55">
         <v>622</v>
       </c>
-      <c r="J55">
-        <v>2864</v>
-      </c>
-      <c r="K55" s="3">
-        <v>0.22579999999999997</v>
-      </c>
-      <c r="L55" s="3">
+      <c r="J55" s="4">
+        <v>2857</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="L55" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M55" s="3">
-        <v>1.8500000000000003E-2</v>
+      <c r="M55" s="5">
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="N55" t="s">
         <v>258</v>
@@ -4244,17 +4252,17 @@
       <c r="I56">
         <v>622</v>
       </c>
-      <c r="J56">
-        <v>2864</v>
-      </c>
-      <c r="K56" s="3">
-        <v>0.22579999999999997</v>
-      </c>
-      <c r="L56" s="3">
+      <c r="J56" s="4">
+        <v>2857</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="L56" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M56" s="3">
-        <v>1.8500000000000003E-2</v>
+      <c r="M56" s="5">
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="N56" t="s">
         <v>258</v>
@@ -4298,17 +4306,17 @@
       <c r="I57">
         <v>622</v>
       </c>
-      <c r="J57">
-        <v>2864</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0.22579999999999997</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="J57" s="4">
+        <v>2857</v>
+      </c>
+      <c r="K57" s="5">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="L57" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M57" s="3">
-        <v>1.8500000000000003E-2</v>
+      <c r="M57" s="5">
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="N57" t="s">
         <v>258</v>
@@ -4352,17 +4360,17 @@
       <c r="I58">
         <v>622</v>
       </c>
-      <c r="J58">
-        <v>2864</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0.22579999999999997</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="J58" s="4">
+        <v>2857</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="L58" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M58" s="3">
-        <v>1.8500000000000003E-2</v>
+      <c r="M58" s="5">
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="N58" t="s">
         <v>258</v>
@@ -4406,17 +4414,17 @@
       <c r="I59">
         <v>622</v>
       </c>
-      <c r="J59">
-        <v>2864</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0.22579999999999997</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="J59" s="4">
+        <v>2857</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="L59" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M59" s="3">
-        <v>1.8500000000000003E-2</v>
+      <c r="M59" s="5">
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="N59" t="s">
         <v>257</v>
@@ -4460,17 +4468,17 @@
       <c r="I60">
         <v>449</v>
       </c>
-      <c r="J60">
-        <v>2969</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0.21710000000000002</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1.8200000000000001E-2</v>
+      <c r="J60" s="4">
+        <v>2947</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0.217</v>
+      </c>
+      <c r="L60" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M60" s="5">
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="N60" t="s">
         <v>257</v>
@@ -4514,17 +4522,17 @@
       <c r="I61">
         <v>449</v>
       </c>
-      <c r="J61">
-        <v>2969</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0.21710000000000002</v>
-      </c>
-      <c r="L61" s="3">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1.8200000000000001E-2</v>
+      <c r="J61" s="4">
+        <v>2947</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0.217</v>
+      </c>
+      <c r="L61" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M61" s="5">
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="N61" t="s">
         <v>258</v>
@@ -4568,17 +4576,17 @@
       <c r="I62">
         <v>449</v>
       </c>
-      <c r="J62">
-        <v>2969</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0.21710000000000002</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1.8200000000000001E-2</v>
+      <c r="J62" s="4">
+        <v>2947</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0.217</v>
+      </c>
+      <c r="L62" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M62" s="5">
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="N62" t="s">
         <v>258</v>
@@ -4622,17 +4630,17 @@
       <c r="I63">
         <v>449</v>
       </c>
-      <c r="J63">
-        <v>2969</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0.21710000000000002</v>
-      </c>
-      <c r="L63" s="3">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="M63" s="3">
-        <v>1.8200000000000001E-2</v>
+      <c r="J63" s="4">
+        <v>2947</v>
+      </c>
+      <c r="K63" s="5">
+        <v>0.217</v>
+      </c>
+      <c r="L63" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M63" s="5">
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="N63" t="s">
         <v>258</v>
@@ -4676,17 +4684,17 @@
       <c r="I64">
         <v>449</v>
       </c>
-      <c r="J64">
-        <v>2969</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0.21710000000000002</v>
-      </c>
-      <c r="L64" s="3">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="M64" s="3">
-        <v>1.8200000000000001E-2</v>
+      <c r="J64" s="4">
+        <v>2947</v>
+      </c>
+      <c r="K64" s="5">
+        <v>0.217</v>
+      </c>
+      <c r="L64" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M64" s="5">
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="N64" t="s">
         <v>258</v>
@@ -4730,16 +4738,16 @@
       <c r="I65">
         <v>544</v>
       </c>
-      <c r="J65">
-        <v>3111</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0.23120000000000002</v>
-      </c>
-      <c r="L65" s="3">
+      <c r="J65" s="4">
+        <v>3108</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="L65" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M65" s="3">
+      <c r="M65" s="5">
         <v>1.83E-2</v>
       </c>
       <c r="N65" t="s">
@@ -4784,16 +4792,16 @@
       <c r="I66">
         <v>544</v>
       </c>
-      <c r="J66">
-        <v>3111</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0.23120000000000002</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="J66" s="4">
+        <v>3108</v>
+      </c>
+      <c r="K66" s="5">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="L66" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="5">
         <v>1.83E-2</v>
       </c>
       <c r="N66" t="s">
@@ -4838,16 +4846,16 @@
       <c r="I67">
         <v>544</v>
       </c>
-      <c r="J67">
-        <v>3111</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0.23120000000000002</v>
-      </c>
-      <c r="L67" s="3">
+      <c r="J67" s="4">
+        <v>3108</v>
+      </c>
+      <c r="K67" s="5">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="L67" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M67" s="3">
+      <c r="M67" s="5">
         <v>1.83E-2</v>
       </c>
       <c r="N67" t="s">
@@ -4892,16 +4900,16 @@
       <c r="I68">
         <v>544</v>
       </c>
-      <c r="J68">
-        <v>3111</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0.23120000000000002</v>
-      </c>
-      <c r="L68" s="3">
+      <c r="J68" s="4">
+        <v>3108</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="L68" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M68" s="3">
+      <c r="M68" s="5">
         <v>1.83E-2</v>
       </c>
       <c r="N68" t="s">
@@ -4946,16 +4954,16 @@
       <c r="I69">
         <v>544</v>
       </c>
-      <c r="J69">
-        <v>3111</v>
-      </c>
-      <c r="K69" s="3">
-        <v>0.23120000000000002</v>
-      </c>
-      <c r="L69" s="3">
+      <c r="J69" s="4">
+        <v>3108</v>
+      </c>
+      <c r="K69" s="5">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="L69" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M69" s="3">
+      <c r="M69" s="5">
         <v>1.83E-2</v>
       </c>
       <c r="N69" t="s">
@@ -5000,16 +5008,16 @@
       <c r="I70">
         <v>544</v>
       </c>
-      <c r="J70">
-        <v>3111</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0.23120000000000002</v>
-      </c>
-      <c r="L70" s="3">
+      <c r="J70" s="4">
+        <v>3108</v>
+      </c>
+      <c r="K70" s="5">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="L70" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M70" s="3">
+      <c r="M70" s="5">
         <v>1.83E-2</v>
       </c>
       <c r="N70" t="s">
@@ -5054,17 +5062,17 @@
       <c r="I71">
         <v>383</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="4">
         <v>2151</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71" s="5">
         <v>0.21809999999999999</v>
       </c>
-      <c r="L71" s="3">
+      <c r="L71" s="5">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="M71" s="3">
-        <v>1.5300000000000001E-2</v>
+      <c r="M71" s="5">
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="N71" t="s">
         <v>258</v>
@@ -5108,17 +5116,17 @@
       <c r="I72">
         <v>383</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="4">
         <v>2151</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="5">
         <v>0.21809999999999999</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="5">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="M72" s="3">
-        <v>1.5300000000000001E-2</v>
+      <c r="M72" s="5">
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="N72" t="s">
         <v>258</v>
@@ -5162,17 +5170,17 @@
       <c r="I73">
         <v>383</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="4">
         <v>2151</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="5">
         <v>0.21809999999999999</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L73" s="5">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="M73" s="3">
-        <v>1.5300000000000001E-2</v>
+      <c r="M73" s="5">
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="N73" t="s">
         <v>258</v>
@@ -5216,17 +5224,17 @@
       <c r="I74">
         <v>383</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="4">
         <v>2151</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="5">
         <v>0.21809999999999999</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L74" s="5">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="M74" s="3">
-        <v>1.5300000000000001E-2</v>
+      <c r="M74" s="5">
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="N74" t="s">
         <v>258</v>
@@ -5270,17 +5278,17 @@
       <c r="I75">
         <v>383</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="4">
         <v>2151</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="5">
         <v>0.21809999999999999</v>
       </c>
-      <c r="L75" s="3">
+      <c r="L75" s="5">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="M75" s="3">
-        <v>1.5300000000000001E-2</v>
+      <c r="M75" s="5">
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="N75" t="s">
         <v>257</v>
@@ -5324,17 +5332,17 @@
       <c r="I76">
         <v>404</v>
       </c>
-      <c r="J76">
-        <v>2042</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0.2306</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1.3899999999999999E-2</v>
+      <c r="J76" s="4">
+        <v>2022</v>
+      </c>
+      <c r="K76" s="5">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="L76" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M76" s="5">
+        <v>1.38E-2</v>
       </c>
       <c r="N76" t="s">
         <v>258</v>
@@ -5378,17 +5386,17 @@
       <c r="I77">
         <v>404</v>
       </c>
-      <c r="J77">
-        <v>2042</v>
-      </c>
-      <c r="K77" s="3">
-        <v>0.2306</v>
-      </c>
-      <c r="L77" s="3">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="M77" s="3">
-        <v>1.3899999999999999E-2</v>
+      <c r="J77" s="4">
+        <v>2022</v>
+      </c>
+      <c r="K77" s="5">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="L77" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M77" s="5">
+        <v>1.38E-2</v>
       </c>
       <c r="N77" t="s">
         <v>258</v>
@@ -5432,17 +5440,17 @@
       <c r="I78">
         <v>404</v>
       </c>
-      <c r="J78">
-        <v>2042</v>
-      </c>
-      <c r="K78" s="3">
-        <v>0.2306</v>
-      </c>
-      <c r="L78" s="3">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="M78" s="3">
-        <v>1.3899999999999999E-2</v>
+      <c r="J78" s="4">
+        <v>2022</v>
+      </c>
+      <c r="K78" s="5">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="L78" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M78" s="5">
+        <v>1.38E-2</v>
       </c>
       <c r="N78" t="s">
         <v>258</v>
@@ -5486,17 +5494,17 @@
       <c r="I79">
         <v>404</v>
       </c>
-      <c r="J79">
-        <v>2042</v>
-      </c>
-      <c r="K79" s="3">
-        <v>0.2306</v>
-      </c>
-      <c r="L79" s="3">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="M79" s="3">
-        <v>1.3899999999999999E-2</v>
+      <c r="J79" s="4">
+        <v>2022</v>
+      </c>
+      <c r="K79" s="5">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="L79" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M79" s="5">
+        <v>1.38E-2</v>
       </c>
       <c r="N79" t="s">
         <v>258</v>
@@ -5540,17 +5548,17 @@
       <c r="I80">
         <v>404</v>
       </c>
-      <c r="J80">
-        <v>2042</v>
-      </c>
-      <c r="K80" s="3">
-        <v>0.2306</v>
-      </c>
-      <c r="L80" s="3">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="M80" s="3">
-        <v>1.3899999999999999E-2</v>
+      <c r="J80" s="4">
+        <v>2022</v>
+      </c>
+      <c r="K80" s="5">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="L80" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M80" s="5">
+        <v>1.38E-2</v>
       </c>
       <c r="N80" t="s">
         <v>258</v>
@@ -5594,17 +5602,17 @@
       <c r="I81">
         <v>404</v>
       </c>
-      <c r="J81">
-        <v>2042</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0.2306</v>
-      </c>
-      <c r="L81" s="3">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1.3899999999999999E-2</v>
+      <c r="J81" s="4">
+        <v>2022</v>
+      </c>
+      <c r="K81" s="5">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="L81" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M81" s="5">
+        <v>1.38E-2</v>
       </c>
       <c r="N81" t="s">
         <v>257</v>
@@ -5648,16 +5656,16 @@
       <c r="I82">
         <v>359</v>
       </c>
-      <c r="J82">
-        <v>1827</v>
-      </c>
-      <c r="K82" s="3">
-        <v>0.2021</v>
-      </c>
-      <c r="L82" s="3">
+      <c r="J82" s="4">
+        <v>1825</v>
+      </c>
+      <c r="K82" s="5">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="L82" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M82" s="3">
+      <c r="M82" s="5">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="N82" t="s">
@@ -5702,16 +5710,16 @@
       <c r="I83">
         <v>359</v>
       </c>
-      <c r="J83">
-        <v>1827</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0.2021</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="J83" s="4">
+        <v>1825</v>
+      </c>
+      <c r="K83" s="5">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="L83" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="5">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="N83" t="s">
@@ -5756,16 +5764,16 @@
       <c r="I84">
         <v>359</v>
       </c>
-      <c r="J84">
-        <v>1827</v>
-      </c>
-      <c r="K84" s="3">
-        <v>0.2021</v>
-      </c>
-      <c r="L84" s="3">
+      <c r="J84" s="4">
+        <v>1825</v>
+      </c>
+      <c r="K84" s="5">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="L84" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M84" s="3">
+      <c r="M84" s="5">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="N84" t="s">
@@ -5810,16 +5818,16 @@
       <c r="I85">
         <v>359</v>
       </c>
-      <c r="J85">
-        <v>1827</v>
-      </c>
-      <c r="K85" s="3">
-        <v>0.2021</v>
-      </c>
-      <c r="L85" s="3">
+      <c r="J85" s="4">
+        <v>1825</v>
+      </c>
+      <c r="K85" s="5">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="L85" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M85" s="3">
+      <c r="M85" s="5">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="N85" t="s">
@@ -5864,16 +5872,16 @@
       <c r="I86">
         <v>383</v>
       </c>
-      <c r="J86">
-        <v>2887</v>
-      </c>
-      <c r="K86" s="3">
-        <v>0.25440000000000002</v>
-      </c>
-      <c r="L86" s="3">
+      <c r="J86" s="4">
+        <v>2885</v>
+      </c>
+      <c r="K86" s="5">
+        <v>0.25430000000000003</v>
+      </c>
+      <c r="L86" s="5">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="M86" s="3">
+      <c r="M86" s="5">
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="N86" t="s">
@@ -5918,16 +5926,16 @@
       <c r="I87">
         <v>383</v>
       </c>
-      <c r="J87">
-        <v>2887</v>
-      </c>
-      <c r="K87" s="3">
-        <v>0.25440000000000002</v>
-      </c>
-      <c r="L87" s="3">
+      <c r="J87" s="4">
+        <v>2885</v>
+      </c>
+      <c r="K87" s="5">
+        <v>0.25430000000000003</v>
+      </c>
+      <c r="L87" s="5">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="M87" s="3">
+      <c r="M87" s="5">
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="N87" t="s">
@@ -5972,16 +5980,16 @@
       <c r="I88">
         <v>383</v>
       </c>
-      <c r="J88">
-        <v>2887</v>
-      </c>
-      <c r="K88" s="3">
-        <v>0.25440000000000002</v>
-      </c>
-      <c r="L88" s="3">
+      <c r="J88" s="4">
+        <v>2885</v>
+      </c>
+      <c r="K88" s="5">
+        <v>0.25430000000000003</v>
+      </c>
+      <c r="L88" s="5">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="M88" s="3">
+      <c r="M88" s="5">
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="N88" t="s">
@@ -6026,16 +6034,16 @@
       <c r="I89">
         <v>383</v>
       </c>
-      <c r="J89">
-        <v>2887</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0.25440000000000002</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="J89" s="4">
+        <v>2885</v>
+      </c>
+      <c r="K89" s="5">
+        <v>0.25430000000000003</v>
+      </c>
+      <c r="L89" s="5">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="5">
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="N89" t="s">
@@ -6080,16 +6088,16 @@
       <c r="I90">
         <v>383</v>
       </c>
-      <c r="J90">
-        <v>2887</v>
-      </c>
-      <c r="K90" s="3">
-        <v>0.25440000000000002</v>
-      </c>
-      <c r="L90" s="3">
+      <c r="J90" s="4">
+        <v>2885</v>
+      </c>
+      <c r="K90" s="5">
+        <v>0.25430000000000003</v>
+      </c>
+      <c r="L90" s="5">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="M90" s="3">
+      <c r="M90" s="5">
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="N90" t="s">
@@ -6134,17 +6142,17 @@
       <c r="I91">
         <v>362</v>
       </c>
-      <c r="J91">
-        <v>2285</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="J91" s="4">
+        <v>2284</v>
+      </c>
+      <c r="K91" s="5">
         <v>0.20860000000000001</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M91" s="3">
-        <v>1.5700000000000002E-2</v>
+      <c r="M91" s="5">
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="N91" t="s">
         <v>258</v>
@@ -6188,17 +6196,17 @@
       <c r="I92">
         <v>362</v>
       </c>
-      <c r="J92">
-        <v>2285</v>
-      </c>
-      <c r="K92" s="3">
+      <c r="J92" s="4">
+        <v>2284</v>
+      </c>
+      <c r="K92" s="5">
         <v>0.20860000000000001</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L92" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M92" s="3">
-        <v>1.5700000000000002E-2</v>
+      <c r="M92" s="5">
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="N92" t="s">
         <v>258</v>
@@ -6242,17 +6250,17 @@
       <c r="I93">
         <v>362</v>
       </c>
-      <c r="J93">
-        <v>2285</v>
-      </c>
-      <c r="K93" s="3">
+      <c r="J93" s="4">
+        <v>2284</v>
+      </c>
+      <c r="K93" s="5">
         <v>0.20860000000000001</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L93" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M93" s="3">
-        <v>1.5700000000000002E-2</v>
+      <c r="M93" s="5">
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="N93" t="s">
         <v>258</v>
@@ -6296,17 +6304,17 @@
       <c r="I94">
         <v>362</v>
       </c>
-      <c r="J94">
-        <v>2285</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="J94" s="4">
+        <v>2284</v>
+      </c>
+      <c r="K94" s="5">
         <v>0.20860000000000001</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M94" s="3">
-        <v>1.5700000000000002E-2</v>
+      <c r="M94" s="5">
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="N94" t="s">
         <v>257</v>
@@ -6350,16 +6358,16 @@
       <c r="I95">
         <v>635</v>
       </c>
-      <c r="J95">
-        <v>2217</v>
-      </c>
-      <c r="K95" s="3">
-        <v>0.2349</v>
-      </c>
-      <c r="L95" s="3">
+      <c r="J95" s="4">
+        <v>2216</v>
+      </c>
+      <c r="K95" s="5">
+        <v>0.23480000000000001</v>
+      </c>
+      <c r="L95" s="5">
         <v>3.8E-3</v>
       </c>
-      <c r="M95" s="3">
+      <c r="M95" s="5">
         <v>1.34E-2</v>
       </c>
       <c r="N95" t="s">
@@ -6404,16 +6412,16 @@
       <c r="I96">
         <v>635</v>
       </c>
-      <c r="J96">
-        <v>2217</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0.2349</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="J96" s="4">
+        <v>2216</v>
+      </c>
+      <c r="K96" s="5">
+        <v>0.23480000000000001</v>
+      </c>
+      <c r="L96" s="5">
         <v>3.8E-3</v>
       </c>
-      <c r="M96" s="3">
+      <c r="M96" s="5">
         <v>1.34E-2</v>
       </c>
       <c r="N96" t="s">
@@ -6458,16 +6466,16 @@
       <c r="I97">
         <v>635</v>
       </c>
-      <c r="J97">
-        <v>2217</v>
-      </c>
-      <c r="K97" s="3">
-        <v>0.2349</v>
-      </c>
-      <c r="L97" s="3">
+      <c r="J97" s="4">
+        <v>2216</v>
+      </c>
+      <c r="K97" s="5">
+        <v>0.23480000000000001</v>
+      </c>
+      <c r="L97" s="5">
         <v>3.8E-3</v>
       </c>
-      <c r="M97" s="3">
+      <c r="M97" s="5">
         <v>1.34E-2</v>
       </c>
       <c r="N97" t="s">
@@ -6512,16 +6520,16 @@
       <c r="I98">
         <v>635</v>
       </c>
-      <c r="J98">
-        <v>2217</v>
-      </c>
-      <c r="K98" s="3">
-        <v>0.2349</v>
-      </c>
-      <c r="L98" s="3">
+      <c r="J98" s="4">
+        <v>2216</v>
+      </c>
+      <c r="K98" s="5">
+        <v>0.23480000000000001</v>
+      </c>
+      <c r="L98" s="5">
         <v>3.8E-3</v>
       </c>
-      <c r="M98" s="3">
+      <c r="M98" s="5">
         <v>1.34E-2</v>
       </c>
       <c r="N98" t="s">
@@ -6566,16 +6574,16 @@
       <c r="I99">
         <v>635</v>
       </c>
-      <c r="J99">
-        <v>2217</v>
-      </c>
-      <c r="K99" s="3">
-        <v>0.2349</v>
-      </c>
-      <c r="L99" s="3">
+      <c r="J99" s="4">
+        <v>2216</v>
+      </c>
+      <c r="K99" s="5">
+        <v>0.23480000000000001</v>
+      </c>
+      <c r="L99" s="5">
         <v>3.8E-3</v>
       </c>
-      <c r="M99" s="3">
+      <c r="M99" s="5">
         <v>1.34E-2</v>
       </c>
       <c r="N99" t="s">
@@ -6620,17 +6628,17 @@
       <c r="I100">
         <v>313</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="4">
         <v>3048</v>
       </c>
-      <c r="K100" s="3">
-        <v>0.19820000000000002</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="K100" s="5">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="L100" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="M100" s="3">
-        <v>2.0099999999999996E-2</v>
+      <c r="M100" s="5">
+        <v>2.01E-2</v>
       </c>
       <c r="N100" t="s">
         <v>257</v>
@@ -6674,17 +6682,17 @@
       <c r="I101">
         <v>313</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="4">
         <v>3048</v>
       </c>
-      <c r="K101" s="3">
-        <v>0.19820000000000002</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="K101" s="5">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="L101" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="M101" s="3">
-        <v>2.0099999999999996E-2</v>
+      <c r="M101" s="5">
+        <v>2.01E-2</v>
       </c>
       <c r="N101" t="s">
         <v>258</v>
@@ -6728,17 +6736,17 @@
       <c r="I102">
         <v>313</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="4">
         <v>3048</v>
       </c>
-      <c r="K102" s="3">
-        <v>0.19820000000000002</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="5">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="L102" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="M102" s="3">
-        <v>2.0099999999999996E-2</v>
+      <c r="M102" s="5">
+        <v>2.01E-2</v>
       </c>
       <c r="N102" t="s">
         <v>258</v>
@@ -6782,17 +6790,17 @@
       <c r="I103">
         <v>313</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="4">
         <v>3048</v>
       </c>
-      <c r="K103" s="3">
-        <v>0.19820000000000002</v>
-      </c>
-      <c r="L103" s="3">
+      <c r="K103" s="5">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="L103" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="M103" s="3">
-        <v>2.0099999999999996E-2</v>
+      <c r="M103" s="5">
+        <v>2.01E-2</v>
       </c>
       <c r="N103" t="s">
         <v>258</v>
@@ -6836,16 +6844,16 @@
       <c r="I104">
         <v>330</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="4">
         <v>2028</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104" s="5">
         <v>0.22289999999999999</v>
       </c>
-      <c r="L104" s="3">
+      <c r="L104" s="5">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M104" s="3">
+      <c r="M104" s="5">
         <v>1.34E-2</v>
       </c>
       <c r="N104" t="s">
@@ -6890,16 +6898,16 @@
       <c r="I105">
         <v>330</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="4">
         <v>2028</v>
       </c>
-      <c r="K105" s="3">
+      <c r="K105" s="5">
         <v>0.22289999999999999</v>
       </c>
-      <c r="L105" s="3">
+      <c r="L105" s="5">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M105" s="3">
+      <c r="M105" s="5">
         <v>1.34E-2</v>
       </c>
       <c r="N105" t="s">
@@ -6944,16 +6952,16 @@
       <c r="I106">
         <v>330</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="4">
         <v>2028</v>
       </c>
-      <c r="K106" s="3">
+      <c r="K106" s="5">
         <v>0.22289999999999999</v>
       </c>
-      <c r="L106" s="3">
+      <c r="L106" s="5">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M106" s="3">
+      <c r="M106" s="5">
         <v>1.34E-2</v>
       </c>
       <c r="N106" t="s">
@@ -6998,16 +7006,16 @@
       <c r="I107">
         <v>330</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="4">
         <v>2028</v>
       </c>
-      <c r="K107" s="3">
+      <c r="K107" s="5">
         <v>0.22289999999999999</v>
       </c>
-      <c r="L107" s="3">
+      <c r="L107" s="5">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M107" s="3">
+      <c r="M107" s="5">
         <v>1.34E-2</v>
       </c>
       <c r="N107" t="s">
@@ -7052,16 +7060,16 @@
       <c r="I108">
         <v>330</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="4">
         <v>2028</v>
       </c>
-      <c r="K108" s="3">
+      <c r="K108" s="5">
         <v>0.22289999999999999</v>
       </c>
-      <c r="L108" s="3">
+      <c r="L108" s="5">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M108" s="3">
+      <c r="M108" s="5">
         <v>1.34E-2</v>
       </c>
       <c r="N108" t="s">
@@ -7106,17 +7114,17 @@
       <c r="I109">
         <v>403</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="4">
         <v>2616</v>
       </c>
-      <c r="K109" s="3">
+      <c r="K109" s="5">
         <v>0.20499999999999999</v>
       </c>
-      <c r="L109" s="3">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="M109" s="3">
-        <v>1.8000000000000002E-2</v>
+      <c r="L109" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M109" s="5">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="N109" t="s">
         <v>258</v>
@@ -7160,17 +7168,17 @@
       <c r="I110">
         <v>403</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="4">
         <v>2616</v>
       </c>
-      <c r="K110" s="3">
+      <c r="K110" s="5">
         <v>0.20499999999999999</v>
       </c>
-      <c r="L110" s="3">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="M110" s="3">
-        <v>1.8000000000000002E-2</v>
+      <c r="L110" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M110" s="5">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="N110" t="s">
         <v>258</v>
@@ -7214,17 +7222,17 @@
       <c r="I111">
         <v>403</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="4">
         <v>2616</v>
       </c>
-      <c r="K111" s="3">
+      <c r="K111" s="5">
         <v>0.20499999999999999</v>
       </c>
-      <c r="L111" s="3">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="M111" s="3">
-        <v>1.8000000000000002E-2</v>
+      <c r="L111" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M111" s="5">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="N111" t="s">
         <v>258</v>
@@ -7268,17 +7276,17 @@
       <c r="I112">
         <v>403</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="4">
         <v>2616</v>
       </c>
-      <c r="K112" s="3">
+      <c r="K112" s="5">
         <v>0.20499999999999999</v>
       </c>
-      <c r="L112" s="3">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="M112" s="3">
-        <v>1.8000000000000002E-2</v>
+      <c r="L112" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M112" s="5">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="N112" t="s">
         <v>257</v>
@@ -7322,17 +7330,17 @@
       <c r="I113">
         <v>650</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="4">
         <v>4351</v>
       </c>
-      <c r="K113" s="3">
-        <v>0.23129999999999998</v>
-      </c>
-      <c r="L113" s="3">
+      <c r="K113" s="5">
+        <v>0.23130000000000001</v>
+      </c>
+      <c r="L113" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M113" s="3">
-        <v>2.5099999999999997E-2</v>
+      <c r="M113" s="5">
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="N113" t="s">
         <v>258</v>
@@ -7376,17 +7384,17 @@
       <c r="I114">
         <v>650</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="4">
         <v>4351</v>
       </c>
-      <c r="K114" s="3">
-        <v>0.23129999999999998</v>
-      </c>
-      <c r="L114" s="3">
+      <c r="K114" s="5">
+        <v>0.23130000000000001</v>
+      </c>
+      <c r="L114" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M114" s="3">
-        <v>2.5099999999999997E-2</v>
+      <c r="M114" s="5">
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="N114" t="s">
         <v>258</v>
@@ -7430,17 +7438,17 @@
       <c r="I115">
         <v>650</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="4">
         <v>4351</v>
       </c>
-      <c r="K115" s="3">
-        <v>0.23129999999999998</v>
-      </c>
-      <c r="L115" s="3">
+      <c r="K115" s="5">
+        <v>0.23130000000000001</v>
+      </c>
+      <c r="L115" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M115" s="3">
-        <v>2.5099999999999997E-2</v>
+      <c r="M115" s="5">
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="N115" t="s">
         <v>258</v>
@@ -7484,17 +7492,17 @@
       <c r="I116">
         <v>650</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="4">
         <v>4351</v>
       </c>
-      <c r="K116" s="3">
-        <v>0.23129999999999998</v>
-      </c>
-      <c r="L116" s="3">
+      <c r="K116" s="5">
+        <v>0.23130000000000001</v>
+      </c>
+      <c r="L116" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M116" s="3">
-        <v>2.5099999999999997E-2</v>
+      <c r="M116" s="5">
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="N116" t="s">
         <v>258</v>
@@ -7538,17 +7546,17 @@
       <c r="I117">
         <v>650</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="4">
         <v>4351</v>
       </c>
-      <c r="K117" s="3">
-        <v>0.23129999999999998</v>
-      </c>
-      <c r="L117" s="3">
+      <c r="K117" s="5">
+        <v>0.23130000000000001</v>
+      </c>
+      <c r="L117" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M117" s="3">
-        <v>2.5099999999999997E-2</v>
+      <c r="M117" s="5">
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="N117" t="s">
         <v>258</v>
@@ -7592,17 +7600,17 @@
       <c r="I118">
         <v>650</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="4">
         <v>4351</v>
       </c>
-      <c r="K118" s="3">
-        <v>0.23129999999999998</v>
-      </c>
-      <c r="L118" s="3">
+      <c r="K118" s="5">
+        <v>0.23130000000000001</v>
+      </c>
+      <c r="L118" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M118" s="3">
-        <v>2.5099999999999997E-2</v>
+      <c r="M118" s="5">
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="N118" t="s">
         <v>257</v>
@@ -7646,17 +7654,17 @@
       <c r="I119">
         <v>351</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="4">
         <v>3067</v>
       </c>
-      <c r="K119" s="3">
+      <c r="K119" s="5">
         <v>0.21729999999999999</v>
       </c>
-      <c r="L119" s="3">
+      <c r="L119" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M119" s="3">
-        <v>2.1400000000000002E-2</v>
+      <c r="M119" s="5">
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="N119" t="s">
         <v>258</v>
@@ -7700,17 +7708,17 @@
       <c r="I120">
         <v>351</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="4">
         <v>3067</v>
       </c>
-      <c r="K120" s="3">
+      <c r="K120" s="5">
         <v>0.21729999999999999</v>
       </c>
-      <c r="L120" s="3">
+      <c r="L120" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M120" s="3">
-        <v>2.1400000000000002E-2</v>
+      <c r="M120" s="5">
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="N120" t="s">
         <v>258</v>
@@ -7754,17 +7762,17 @@
       <c r="I121">
         <v>351</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="4">
         <v>3067</v>
       </c>
-      <c r="K121" s="3">
+      <c r="K121" s="5">
         <v>0.21729999999999999</v>
       </c>
-      <c r="L121" s="3">
+      <c r="L121" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M121" s="3">
-        <v>2.1400000000000002E-2</v>
+      <c r="M121" s="5">
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="N121" t="s">
         <v>258</v>
@@ -7808,17 +7816,17 @@
       <c r="I122">
         <v>351</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="4">
         <v>3067</v>
       </c>
-      <c r="K122" s="3">
+      <c r="K122" s="5">
         <v>0.21729999999999999</v>
       </c>
-      <c r="L122" s="3">
+      <c r="L122" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M122" s="3">
-        <v>2.1400000000000002E-2</v>
+      <c r="M122" s="5">
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="N122" t="s">
         <v>258</v>
@@ -7862,17 +7870,17 @@
       <c r="I123">
         <v>351</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="4">
         <v>3067</v>
       </c>
-      <c r="K123" s="3">
+      <c r="K123" s="5">
         <v>0.21729999999999999</v>
       </c>
-      <c r="L123" s="3">
+      <c r="L123" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M123" s="3">
-        <v>2.1400000000000002E-2</v>
+      <c r="M123" s="5">
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="N123" t="s">
         <v>258</v>
@@ -7916,17 +7924,17 @@
       <c r="I124">
         <v>351</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="4">
         <v>3067</v>
       </c>
-      <c r="K124" s="3">
+      <c r="K124" s="5">
         <v>0.21729999999999999</v>
       </c>
-      <c r="L124" s="3">
+      <c r="L124" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M124" s="3">
-        <v>2.1400000000000002E-2</v>
+      <c r="M124" s="5">
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="N124" t="s">
         <v>258</v>
@@ -7970,17 +7978,17 @@
       <c r="I125">
         <v>351</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="4">
         <v>3067</v>
       </c>
-      <c r="K125" s="3">
+      <c r="K125" s="5">
         <v>0.21729999999999999</v>
       </c>
-      <c r="L125" s="3">
+      <c r="L125" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M125" s="3">
-        <v>2.1400000000000002E-2</v>
+      <c r="M125" s="5">
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="N125" t="s">
         <v>257</v>
@@ -8024,17 +8032,17 @@
       <c r="I126">
         <v>421</v>
       </c>
-      <c r="J126">
-        <v>2153</v>
-      </c>
-      <c r="K126" s="3">
+      <c r="J126" s="4">
+        <v>2154</v>
+      </c>
+      <c r="K126" s="5">
         <v>0.20180000000000001</v>
       </c>
-      <c r="L126" s="3">
+      <c r="L126" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M126" s="3">
-        <v>1.5300000000000001E-2</v>
+      <c r="M126" s="5">
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="N126" t="s">
         <v>258</v>
@@ -8078,17 +8086,17 @@
       <c r="I127">
         <v>421</v>
       </c>
-      <c r="J127">
-        <v>2153</v>
-      </c>
-      <c r="K127" s="3">
+      <c r="J127" s="4">
+        <v>2154</v>
+      </c>
+      <c r="K127" s="5">
         <v>0.20180000000000001</v>
       </c>
-      <c r="L127" s="3">
+      <c r="L127" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M127" s="3">
-        <v>1.5300000000000001E-2</v>
+      <c r="M127" s="5">
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="N127" t="s">
         <v>258</v>
@@ -8132,17 +8140,17 @@
       <c r="I128">
         <v>421</v>
       </c>
-      <c r="J128">
-        <v>2153</v>
-      </c>
-      <c r="K128" s="3">
+      <c r="J128" s="4">
+        <v>2154</v>
+      </c>
+      <c r="K128" s="5">
         <v>0.20180000000000001</v>
       </c>
-      <c r="L128" s="3">
+      <c r="L128" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M128" s="3">
-        <v>1.5300000000000001E-2</v>
+      <c r="M128" s="5">
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="N128" t="s">
         <v>258</v>
@@ -8186,17 +8194,17 @@
       <c r="I129">
         <v>421</v>
       </c>
-      <c r="J129">
-        <v>2153</v>
-      </c>
-      <c r="K129" s="3">
+      <c r="J129" s="4">
+        <v>2154</v>
+      </c>
+      <c r="K129" s="5">
         <v>0.20180000000000001</v>
       </c>
-      <c r="L129" s="3">
+      <c r="L129" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M129" s="3">
-        <v>1.5300000000000001E-2</v>
+      <c r="M129" s="5">
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="N129" t="s">
         <v>258</v>
@@ -8240,17 +8248,17 @@
       <c r="I130">
         <v>421</v>
       </c>
-      <c r="J130">
-        <v>2153</v>
-      </c>
-      <c r="K130" s="3">
+      <c r="J130" s="4">
+        <v>2154</v>
+      </c>
+      <c r="K130" s="5">
         <v>0.20180000000000001</v>
       </c>
-      <c r="L130" s="3">
+      <c r="L130" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M130" s="3">
-        <v>1.5300000000000001E-2</v>
+      <c r="M130" s="5">
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="N130" t="s">
         <v>257</v>
@@ -8294,16 +8302,16 @@
       <c r="I131">
         <v>513</v>
       </c>
-      <c r="J131">
-        <v>1876</v>
-      </c>
-      <c r="K131" s="3">
+      <c r="J131" s="4">
+        <v>1875</v>
+      </c>
+      <c r="K131" s="5">
         <v>0.217</v>
       </c>
-      <c r="L131" s="3">
-        <v>3.4999999999999996E-3</v>
-      </c>
-      <c r="M131" s="3">
+      <c r="L131" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M131" s="5">
         <v>1.29E-2</v>
       </c>
       <c r="N131" t="s">
@@ -8348,16 +8356,16 @@
       <c r="I132">
         <v>513</v>
       </c>
-      <c r="J132">
-        <v>1876</v>
-      </c>
-      <c r="K132" s="3">
+      <c r="J132" s="4">
+        <v>1875</v>
+      </c>
+      <c r="K132" s="5">
         <v>0.217</v>
       </c>
-      <c r="L132" s="3">
-        <v>3.4999999999999996E-3</v>
-      </c>
-      <c r="M132" s="3">
+      <c r="L132" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M132" s="5">
         <v>1.29E-2</v>
       </c>
       <c r="N132" t="s">
@@ -8402,16 +8410,16 @@
       <c r="I133">
         <v>513</v>
       </c>
-      <c r="J133">
-        <v>1876</v>
-      </c>
-      <c r="K133" s="3">
+      <c r="J133" s="4">
+        <v>1875</v>
+      </c>
+      <c r="K133" s="5">
         <v>0.217</v>
       </c>
-      <c r="L133" s="3">
-        <v>3.4999999999999996E-3</v>
-      </c>
-      <c r="M133" s="3">
+      <c r="L133" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M133" s="5">
         <v>1.29E-2</v>
       </c>
       <c r="N133" t="s">
@@ -8456,16 +8464,16 @@
       <c r="I134">
         <v>513</v>
       </c>
-      <c r="J134">
-        <v>1876</v>
-      </c>
-      <c r="K134" s="3">
+      <c r="J134" s="4">
+        <v>1875</v>
+      </c>
+      <c r="K134" s="5">
         <v>0.217</v>
       </c>
-      <c r="L134" s="3">
-        <v>3.4999999999999996E-3</v>
-      </c>
-      <c r="M134" s="3">
+      <c r="L134" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M134" s="5">
         <v>1.29E-2</v>
       </c>
       <c r="N134" t="s">
@@ -8510,16 +8518,16 @@
       <c r="I135">
         <v>513</v>
       </c>
-      <c r="J135">
-        <v>1876</v>
-      </c>
-      <c r="K135" s="3">
+      <c r="J135" s="4">
+        <v>1875</v>
+      </c>
+      <c r="K135" s="5">
         <v>0.217</v>
       </c>
-      <c r="L135" s="3">
-        <v>3.4999999999999996E-3</v>
-      </c>
-      <c r="M135" s="3">
+      <c r="L135" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M135" s="5">
         <v>1.29E-2</v>
       </c>
       <c r="N135" t="s">
@@ -8564,16 +8572,16 @@
       <c r="I136">
         <v>431</v>
       </c>
-      <c r="J136">
-        <v>2632</v>
-      </c>
-      <c r="K136" s="3">
+      <c r="J136" s="4">
+        <v>2631</v>
+      </c>
+      <c r="K136" s="5">
         <v>0.2082</v>
       </c>
-      <c r="L136" s="3">
+      <c r="L136" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M136" s="3">
+      <c r="M136" s="5">
         <v>1.83E-2</v>
       </c>
       <c r="N136" t="s">
@@ -8618,16 +8626,16 @@
       <c r="I137">
         <v>431</v>
       </c>
-      <c r="J137">
-        <v>2632</v>
-      </c>
-      <c r="K137" s="3">
+      <c r="J137" s="4">
+        <v>2631</v>
+      </c>
+      <c r="K137" s="5">
         <v>0.2082</v>
       </c>
-      <c r="L137" s="3">
+      <c r="L137" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M137" s="3">
+      <c r="M137" s="5">
         <v>1.83E-2</v>
       </c>
       <c r="N137" t="s">
@@ -8672,16 +8680,16 @@
       <c r="I138">
         <v>431</v>
       </c>
-      <c r="J138">
-        <v>2632</v>
-      </c>
-      <c r="K138" s="3">
+      <c r="J138" s="4">
+        <v>2631</v>
+      </c>
+      <c r="K138" s="5">
         <v>0.2082</v>
       </c>
-      <c r="L138" s="3">
+      <c r="L138" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M138" s="3">
+      <c r="M138" s="5">
         <v>1.83E-2</v>
       </c>
       <c r="N138" t="s">
@@ -8726,16 +8734,16 @@
       <c r="I139">
         <v>431</v>
       </c>
-      <c r="J139">
-        <v>2632</v>
-      </c>
-      <c r="K139" s="3">
+      <c r="J139" s="4">
+        <v>2631</v>
+      </c>
+      <c r="K139" s="5">
         <v>0.2082</v>
       </c>
-      <c r="L139" s="3">
+      <c r="L139" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M139" s="3">
+      <c r="M139" s="5">
         <v>1.83E-2</v>
       </c>
       <c r="N139" t="s">
@@ -8780,17 +8788,17 @@
       <c r="I140">
         <v>470</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="4">
         <v>2065</v>
       </c>
-      <c r="K140" s="3">
+      <c r="K140" s="5">
         <v>0.18920000000000001</v>
       </c>
-      <c r="L140" s="3">
+      <c r="L140" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M140" s="3">
-        <v>1.3999999999999999E-2</v>
+      <c r="M140" s="5">
+        <v>1.4E-2</v>
       </c>
       <c r="N140" t="s">
         <v>257</v>
@@ -8834,17 +8842,17 @@
       <c r="I141">
         <v>470</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="4">
         <v>2065</v>
       </c>
-      <c r="K141" s="3">
+      <c r="K141" s="5">
         <v>0.18920000000000001</v>
       </c>
-      <c r="L141" s="3">
+      <c r="L141" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M141" s="3">
-        <v>1.3999999999999999E-2</v>
+      <c r="M141" s="5">
+        <v>1.4E-2</v>
       </c>
       <c r="N141" t="s">
         <v>258</v>
@@ -8888,17 +8896,17 @@
       <c r="I142">
         <v>470</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="4">
         <v>2065</v>
       </c>
-      <c r="K142" s="3">
+      <c r="K142" s="5">
         <v>0.18920000000000001</v>
       </c>
-      <c r="L142" s="3">
+      <c r="L142" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M142" s="3">
-        <v>1.3999999999999999E-2</v>
+      <c r="M142" s="5">
+        <v>1.4E-2</v>
       </c>
       <c r="N142" t="s">
         <v>258</v>
@@ -8942,17 +8950,17 @@
       <c r="I143">
         <v>470</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="4">
         <v>2065</v>
       </c>
-      <c r="K143" s="3">
+      <c r="K143" s="5">
         <v>0.18920000000000001</v>
       </c>
-      <c r="L143" s="3">
+      <c r="L143" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M143" s="3">
-        <v>1.3999999999999999E-2</v>
+      <c r="M143" s="5">
+        <v>1.4E-2</v>
       </c>
       <c r="N143" t="s">
         <v>258</v>
@@ -8996,16 +9004,16 @@
       <c r="I144">
         <v>316</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="4">
         <v>1799</v>
       </c>
-      <c r="K144" s="3">
+      <c r="K144" s="5">
         <v>0.21890000000000001</v>
       </c>
-      <c r="L144" s="3">
+      <c r="L144" s="5">
         <v>2E-3</v>
       </c>
-      <c r="M144" s="3">
+      <c r="M144" s="5">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="N144" t="s">
@@ -9050,16 +9058,16 @@
       <c r="I145">
         <v>316</v>
       </c>
-      <c r="J145">
+      <c r="J145" s="4">
         <v>1799</v>
       </c>
-      <c r="K145" s="3">
+      <c r="K145" s="5">
         <v>0.21890000000000001</v>
       </c>
-      <c r="L145" s="3">
+      <c r="L145" s="5">
         <v>2E-3</v>
       </c>
-      <c r="M145" s="3">
+      <c r="M145" s="5">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="N145" t="s">
@@ -9104,16 +9112,16 @@
       <c r="I146">
         <v>316</v>
       </c>
-      <c r="J146">
+      <c r="J146" s="4">
         <v>1799</v>
       </c>
-      <c r="K146" s="3">
+      <c r="K146" s="5">
         <v>0.21890000000000001</v>
       </c>
-      <c r="L146" s="3">
+      <c r="L146" s="5">
         <v>2E-3</v>
       </c>
-      <c r="M146" s="3">
+      <c r="M146" s="5">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="N146" t="s">
@@ -9158,16 +9166,16 @@
       <c r="I147">
         <v>316</v>
       </c>
-      <c r="J147">
+      <c r="J147" s="4">
         <v>1799</v>
       </c>
-      <c r="K147" s="3">
+      <c r="K147" s="5">
         <v>0.21890000000000001</v>
       </c>
-      <c r="L147" s="3">
+      <c r="L147" s="5">
         <v>2E-3</v>
       </c>
-      <c r="M147" s="3">
+      <c r="M147" s="5">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="N147" t="s">
@@ -9212,16 +9220,16 @@
       <c r="I148">
         <v>316</v>
       </c>
-      <c r="J148">
+      <c r="J148" s="4">
         <v>1799</v>
       </c>
-      <c r="K148" s="3">
+      <c r="K148" s="5">
         <v>0.21890000000000001</v>
       </c>
-      <c r="L148" s="3">
+      <c r="L148" s="5">
         <v>2E-3</v>
       </c>
-      <c r="M148" s="3">
+      <c r="M148" s="5">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="N148" t="s">
@@ -9266,16 +9274,16 @@
       <c r="I149">
         <v>316</v>
       </c>
-      <c r="J149">
+      <c r="J149" s="4">
         <v>1799</v>
       </c>
-      <c r="K149" s="3">
+      <c r="K149" s="5">
         <v>0.21890000000000001</v>
       </c>
-      <c r="L149" s="3">
+      <c r="L149" s="5">
         <v>2E-3</v>
       </c>
-      <c r="M149" s="3">
+      <c r="M149" s="5">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="N149" t="s">
@@ -9320,16 +9328,16 @@
       <c r="I150">
         <v>614</v>
       </c>
-      <c r="J150">
-        <v>1609</v>
-      </c>
-      <c r="K150" s="3">
+      <c r="J150" s="4">
+        <v>1608</v>
+      </c>
+      <c r="K150" s="5">
         <v>0.20610000000000001</v>
       </c>
-      <c r="L150" s="3">
+      <c r="L150" s="5">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="M150" s="3">
+      <c r="M150" s="5">
         <v>1.11E-2</v>
       </c>
       <c r="N150" t="s">
@@ -9374,16 +9382,16 @@
       <c r="I151">
         <v>614</v>
       </c>
-      <c r="J151">
-        <v>1609</v>
-      </c>
-      <c r="K151" s="3">
+      <c r="J151" s="4">
+        <v>1608</v>
+      </c>
+      <c r="K151" s="5">
         <v>0.20610000000000001</v>
       </c>
-      <c r="L151" s="3">
+      <c r="L151" s="5">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="M151" s="3">
+      <c r="M151" s="5">
         <v>1.11E-2</v>
       </c>
       <c r="N151" t="s">
@@ -9428,16 +9436,16 @@
       <c r="I152">
         <v>614</v>
       </c>
-      <c r="J152">
-        <v>1609</v>
-      </c>
-      <c r="K152" s="3">
+      <c r="J152" s="4">
+        <v>1608</v>
+      </c>
+      <c r="K152" s="5">
         <v>0.20610000000000001</v>
       </c>
-      <c r="L152" s="3">
+      <c r="L152" s="5">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="M152" s="3">
+      <c r="M152" s="5">
         <v>1.11E-2</v>
       </c>
       <c r="N152" t="s">
@@ -9482,16 +9490,16 @@
       <c r="I153">
         <v>614</v>
       </c>
-      <c r="J153">
-        <v>1609</v>
-      </c>
-      <c r="K153" s="3">
+      <c r="J153" s="4">
+        <v>1608</v>
+      </c>
+      <c r="K153" s="5">
         <v>0.20610000000000001</v>
       </c>
-      <c r="L153" s="3">
+      <c r="L153" s="5">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="M153" s="3">
+      <c r="M153" s="5">
         <v>1.11E-2</v>
       </c>
       <c r="N153" t="s">
@@ -9536,16 +9544,16 @@
       <c r="I154">
         <v>614</v>
       </c>
-      <c r="J154">
-        <v>1609</v>
-      </c>
-      <c r="K154" s="3">
+      <c r="J154" s="4">
+        <v>1608</v>
+      </c>
+      <c r="K154" s="5">
         <v>0.20610000000000001</v>
       </c>
-      <c r="L154" s="3">
+      <c r="L154" s="5">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="M154" s="3">
+      <c r="M154" s="5">
         <v>1.11E-2</v>
       </c>
       <c r="N154" t="s">
@@ -9590,16 +9598,16 @@
       <c r="I155">
         <v>486</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="4">
         <v>3330</v>
       </c>
-      <c r="K155" s="3">
-        <v>0.22870000000000001</v>
-      </c>
-      <c r="L155" s="3">
+      <c r="K155" s="5">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="L155" s="5">
         <v>3.3E-3</v>
       </c>
-      <c r="M155" s="3">
+      <c r="M155" s="5">
         <v>2.29E-2</v>
       </c>
       <c r="N155" t="s">
@@ -9644,16 +9652,16 @@
       <c r="I156">
         <v>486</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="4">
         <v>3330</v>
       </c>
-      <c r="K156" s="3">
-        <v>0.22870000000000001</v>
-      </c>
-      <c r="L156" s="3">
+      <c r="K156" s="5">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="L156" s="5">
         <v>3.3E-3</v>
       </c>
-      <c r="M156" s="3">
+      <c r="M156" s="5">
         <v>2.29E-2</v>
       </c>
       <c r="N156" t="s">
@@ -9698,16 +9706,16 @@
       <c r="I157">
         <v>486</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="4">
         <v>3330</v>
       </c>
-      <c r="K157" s="3">
-        <v>0.22870000000000001</v>
-      </c>
-      <c r="L157" s="3">
+      <c r="K157" s="5">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="L157" s="5">
         <v>3.3E-3</v>
       </c>
-      <c r="M157" s="3">
+      <c r="M157" s="5">
         <v>2.29E-2</v>
       </c>
       <c r="N157" t="s">
@@ -9752,16 +9760,16 @@
       <c r="I158">
         <v>486</v>
       </c>
-      <c r="J158">
+      <c r="J158" s="4">
         <v>3330</v>
       </c>
-      <c r="K158" s="3">
-        <v>0.22870000000000001</v>
-      </c>
-      <c r="L158" s="3">
+      <c r="K158" s="5">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="L158" s="5">
         <v>3.3E-3</v>
       </c>
-      <c r="M158" s="3">
+      <c r="M158" s="5">
         <v>2.29E-2</v>
       </c>
       <c r="N158" t="s">
@@ -9806,16 +9814,16 @@
       <c r="I159">
         <v>486</v>
       </c>
-      <c r="J159">
+      <c r="J159" s="4">
         <v>3330</v>
       </c>
-      <c r="K159" s="3">
-        <v>0.22870000000000001</v>
-      </c>
-      <c r="L159" s="3">
+      <c r="K159" s="5">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="L159" s="5">
         <v>3.3E-3</v>
       </c>
-      <c r="M159" s="3">
+      <c r="M159" s="5">
         <v>2.29E-2</v>
       </c>
       <c r="N159" t="s">
@@ -9860,16 +9868,16 @@
       <c r="I160">
         <v>486</v>
       </c>
-      <c r="J160">
+      <c r="J160" s="4">
         <v>3330</v>
       </c>
-      <c r="K160" s="3">
-        <v>0.22870000000000001</v>
-      </c>
-      <c r="L160" s="3">
+      <c r="K160" s="5">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="L160" s="5">
         <v>3.3E-3</v>
       </c>
-      <c r="M160" s="3">
+      <c r="M160" s="5">
         <v>2.29E-2</v>
       </c>
       <c r="N160" t="s">
@@ -9914,16 +9922,16 @@
       <c r="I161">
         <v>932</v>
       </c>
-      <c r="J161">
+      <c r="J161" s="4">
         <v>1471</v>
       </c>
-      <c r="K161" s="3">
+      <c r="K161" s="5">
         <v>0.19159999999999999</v>
       </c>
-      <c r="L161" s="3">
+      <c r="L161" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M161" s="3">
+      <c r="M161" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="N161" t="s">
@@ -9968,16 +9976,16 @@
       <c r="I162">
         <v>932</v>
       </c>
-      <c r="J162">
+      <c r="J162" s="4">
         <v>1471</v>
       </c>
-      <c r="K162" s="3">
+      <c r="K162" s="5">
         <v>0.19159999999999999</v>
       </c>
-      <c r="L162" s="3">
+      <c r="L162" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M162" s="3">
+      <c r="M162" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="N162" t="s">
@@ -10022,16 +10030,16 @@
       <c r="I163">
         <v>932</v>
       </c>
-      <c r="J163">
+      <c r="J163" s="4">
         <v>1471</v>
       </c>
-      <c r="K163" s="3">
+      <c r="K163" s="5">
         <v>0.19159999999999999</v>
       </c>
-      <c r="L163" s="3">
+      <c r="L163" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M163" s="3">
+      <c r="M163" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="N163" t="s">
@@ -10076,16 +10084,16 @@
       <c r="I164">
         <v>932</v>
       </c>
-      <c r="J164">
+      <c r="J164" s="4">
         <v>1471</v>
       </c>
-      <c r="K164" s="3">
+      <c r="K164" s="5">
         <v>0.19159999999999999</v>
       </c>
-      <c r="L164" s="3">
+      <c r="L164" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M164" s="3">
+      <c r="M164" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="N164" t="s">
@@ -10130,16 +10138,16 @@
       <c r="I165">
         <v>932</v>
       </c>
-      <c r="J165">
+      <c r="J165" s="4">
         <v>1471</v>
       </c>
-      <c r="K165" s="3">
+      <c r="K165" s="5">
         <v>0.19159999999999999</v>
       </c>
-      <c r="L165" s="3">
+      <c r="L165" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M165" s="3">
+      <c r="M165" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="N165" t="s">
@@ -10184,16 +10192,16 @@
       <c r="I166">
         <v>932</v>
       </c>
-      <c r="J166">
+      <c r="J166" s="4">
         <v>1471</v>
       </c>
-      <c r="K166" s="3">
+      <c r="K166" s="5">
         <v>0.19159999999999999</v>
       </c>
-      <c r="L166" s="3">
+      <c r="L166" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M166" s="3">
+      <c r="M166" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="N166" t="s">
@@ -10238,16 +10246,16 @@
       <c r="I167">
         <v>1091</v>
       </c>
-      <c r="J167">
-        <v>1888</v>
-      </c>
-      <c r="K167" s="3">
-        <v>0.20149999999999998</v>
-      </c>
-      <c r="L167" s="3">
+      <c r="J167" s="4">
+        <v>1887</v>
+      </c>
+      <c r="K167" s="5">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="L167" s="5">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="M167" s="3">
+      <c r="M167" s="5">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="N167" t="s">
@@ -10292,16 +10300,16 @@
       <c r="I168">
         <v>1091</v>
       </c>
-      <c r="J168">
-        <v>1888</v>
-      </c>
-      <c r="K168" s="3">
-        <v>0.20149999999999998</v>
-      </c>
-      <c r="L168" s="3">
+      <c r="J168" s="4">
+        <v>1887</v>
+      </c>
+      <c r="K168" s="5">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="L168" s="5">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="M168" s="3">
+      <c r="M168" s="5">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="N168" t="s">
@@ -10346,16 +10354,16 @@
       <c r="I169">
         <v>1091</v>
       </c>
-      <c r="J169">
-        <v>1888</v>
-      </c>
-      <c r="K169" s="3">
-        <v>0.20149999999999998</v>
-      </c>
-      <c r="L169" s="3">
+      <c r="J169" s="4">
+        <v>1887</v>
+      </c>
+      <c r="K169" s="5">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="L169" s="5">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="M169" s="3">
+      <c r="M169" s="5">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="N169" t="s">
@@ -10400,16 +10408,16 @@
       <c r="I170">
         <v>1091</v>
       </c>
-      <c r="J170">
-        <v>1888</v>
-      </c>
-      <c r="K170" s="3">
-        <v>0.20149999999999998</v>
-      </c>
-      <c r="L170" s="3">
+      <c r="J170" s="4">
+        <v>1887</v>
+      </c>
+      <c r="K170" s="5">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="L170" s="5">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="M170" s="3">
+      <c r="M170" s="5">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="N170" t="s">
@@ -10454,16 +10462,16 @@
       <c r="I171">
         <v>1091</v>
       </c>
-      <c r="J171">
-        <v>1888</v>
-      </c>
-      <c r="K171" s="3">
-        <v>0.20149999999999998</v>
-      </c>
-      <c r="L171" s="3">
+      <c r="J171" s="4">
+        <v>1887</v>
+      </c>
+      <c r="K171" s="5">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="L171" s="5">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="M171" s="3">
+      <c r="M171" s="5">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="N171" t="s">
@@ -10508,16 +10516,16 @@
       <c r="I172">
         <v>858</v>
       </c>
-      <c r="J172">
-        <v>2397</v>
-      </c>
-      <c r="K172" s="3">
-        <v>0.2175</v>
-      </c>
-      <c r="L172" s="3">
+      <c r="J172" s="4">
+        <v>2396</v>
+      </c>
+      <c r="K172" s="5">
+        <v>0.21740000000000001</v>
+      </c>
+      <c r="L172" s="5">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="M172" s="3">
+      <c r="M172" s="5">
         <v>1.37E-2</v>
       </c>
       <c r="N172" t="s">
@@ -10562,16 +10570,16 @@
       <c r="I173">
         <v>858</v>
       </c>
-      <c r="J173">
-        <v>2397</v>
-      </c>
-      <c r="K173" s="3">
-        <v>0.2175</v>
-      </c>
-      <c r="L173" s="3">
+      <c r="J173" s="4">
+        <v>2396</v>
+      </c>
+      <c r="K173" s="5">
+        <v>0.21740000000000001</v>
+      </c>
+      <c r="L173" s="5">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="M173" s="3">
+      <c r="M173" s="5">
         <v>1.37E-2</v>
       </c>
       <c r="N173" t="s">
@@ -10616,16 +10624,16 @@
       <c r="I174">
         <v>858</v>
       </c>
-      <c r="J174">
-        <v>2397</v>
-      </c>
-      <c r="K174" s="3">
-        <v>0.2175</v>
-      </c>
-      <c r="L174" s="3">
+      <c r="J174" s="4">
+        <v>2396</v>
+      </c>
+      <c r="K174" s="5">
+        <v>0.21740000000000001</v>
+      </c>
+      <c r="L174" s="5">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="M174" s="3">
+      <c r="M174" s="5">
         <v>1.37E-2</v>
       </c>
       <c r="N174" t="s">
@@ -10670,16 +10678,16 @@
       <c r="I175">
         <v>858</v>
       </c>
-      <c r="J175">
-        <v>2397</v>
-      </c>
-      <c r="K175" s="3">
-        <v>0.2175</v>
-      </c>
-      <c r="L175" s="3">
+      <c r="J175" s="4">
+        <v>2396</v>
+      </c>
+      <c r="K175" s="5">
+        <v>0.21740000000000001</v>
+      </c>
+      <c r="L175" s="5">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="M175" s="3">
+      <c r="M175" s="5">
         <v>1.37E-2</v>
       </c>
       <c r="N175" t="s">
@@ -10724,16 +10732,16 @@
       <c r="I176">
         <v>858</v>
       </c>
-      <c r="J176">
-        <v>2397</v>
-      </c>
-      <c r="K176" s="3">
-        <v>0.2175</v>
-      </c>
-      <c r="L176" s="3">
+      <c r="J176" s="4">
+        <v>2396</v>
+      </c>
+      <c r="K176" s="5">
+        <v>0.21740000000000001</v>
+      </c>
+      <c r="L176" s="5">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="M176" s="3">
+      <c r="M176" s="5">
         <v>1.37E-2</v>
       </c>
       <c r="N176" t="s">
@@ -10778,16 +10786,16 @@
       <c r="I177">
         <v>858</v>
       </c>
-      <c r="J177">
-        <v>2397</v>
-      </c>
-      <c r="K177" s="3">
-        <v>0.2175</v>
-      </c>
-      <c r="L177" s="3">
+      <c r="J177" s="4">
+        <v>2396</v>
+      </c>
+      <c r="K177" s="5">
+        <v>0.21740000000000001</v>
+      </c>
+      <c r="L177" s="5">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="M177" s="3">
+      <c r="M177" s="5">
         <v>1.37E-2</v>
       </c>
       <c r="N177" t="s">
@@ -10832,16 +10840,16 @@
       <c r="I178">
         <v>956</v>
       </c>
-      <c r="J178">
+      <c r="J178" s="4">
         <v>2502</v>
       </c>
-      <c r="K178" s="3">
-        <v>0.21359999999999998</v>
-      </c>
-      <c r="L178" s="3">
+      <c r="K178" s="5">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="L178" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="M178" s="3">
+      <c r="M178" s="5">
         <v>1.72E-2</v>
       </c>
       <c r="N178" t="s">
@@ -10886,16 +10894,16 @@
       <c r="I179">
         <v>956</v>
       </c>
-      <c r="J179">
+      <c r="J179" s="4">
         <v>2502</v>
       </c>
-      <c r="K179" s="3">
-        <v>0.21359999999999998</v>
-      </c>
-      <c r="L179" s="3">
+      <c r="K179" s="5">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="L179" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="M179" s="3">
+      <c r="M179" s="5">
         <v>1.72E-2</v>
       </c>
       <c r="N179" t="s">
@@ -10940,16 +10948,16 @@
       <c r="I180">
         <v>956</v>
       </c>
-      <c r="J180">
+      <c r="J180" s="4">
         <v>2502</v>
       </c>
-      <c r="K180" s="3">
-        <v>0.21359999999999998</v>
-      </c>
-      <c r="L180" s="3">
+      <c r="K180" s="5">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="L180" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="M180" s="3">
+      <c r="M180" s="5">
         <v>1.72E-2</v>
       </c>
       <c r="N180" t="s">
@@ -10994,16 +11002,16 @@
       <c r="I181">
         <v>956</v>
       </c>
-      <c r="J181">
+      <c r="J181" s="4">
         <v>2502</v>
       </c>
-      <c r="K181" s="3">
-        <v>0.21359999999999998</v>
-      </c>
-      <c r="L181" s="3">
+      <c r="K181" s="5">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="L181" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="M181" s="3">
+      <c r="M181" s="5">
         <v>1.72E-2</v>
       </c>
       <c r="N181" t="s">
@@ -11048,16 +11056,16 @@
       <c r="I182">
         <v>956</v>
       </c>
-      <c r="J182">
+      <c r="J182" s="4">
         <v>2502</v>
       </c>
-      <c r="K182" s="3">
-        <v>0.21359999999999998</v>
-      </c>
-      <c r="L182" s="3">
+      <c r="K182" s="5">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="L182" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="M182" s="3">
+      <c r="M182" s="5">
         <v>1.72E-2</v>
       </c>
       <c r="N182" t="s">
@@ -11102,16 +11110,16 @@
       <c r="I183">
         <v>956</v>
       </c>
-      <c r="J183">
+      <c r="J183" s="4">
         <v>2502</v>
       </c>
-      <c r="K183" s="3">
-        <v>0.21359999999999998</v>
-      </c>
-      <c r="L183" s="3">
+      <c r="K183" s="5">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="L183" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="M183" s="3">
+      <c r="M183" s="5">
         <v>1.72E-2</v>
       </c>
       <c r="N183" t="s">
@@ -11156,16 +11164,16 @@
       <c r="I184">
         <v>1035</v>
       </c>
-      <c r="J184">
+      <c r="J184" s="4">
         <v>2411</v>
       </c>
-      <c r="K184" s="3">
+      <c r="K184" s="5">
         <v>0.20749999999999999</v>
       </c>
-      <c r="L184" s="3">
-        <v>6.0999999999999995E-3</v>
-      </c>
-      <c r="M184" s="3">
+      <c r="L184" s="5">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M184" s="5">
         <v>1.41E-2</v>
       </c>
       <c r="N184" t="s">
@@ -11210,16 +11218,16 @@
       <c r="I185">
         <v>1035</v>
       </c>
-      <c r="J185">
+      <c r="J185" s="4">
         <v>2411</v>
       </c>
-      <c r="K185" s="3">
+      <c r="K185" s="5">
         <v>0.20749999999999999</v>
       </c>
-      <c r="L185" s="3">
-        <v>6.0999999999999995E-3</v>
-      </c>
-      <c r="M185" s="3">
+      <c r="L185" s="5">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M185" s="5">
         <v>1.41E-2</v>
       </c>
       <c r="N185" t="s">
@@ -11264,16 +11272,16 @@
       <c r="I186">
         <v>1035</v>
       </c>
-      <c r="J186">
+      <c r="J186" s="4">
         <v>2411</v>
       </c>
-      <c r="K186" s="3">
+      <c r="K186" s="5">
         <v>0.20749999999999999</v>
       </c>
-      <c r="L186" s="3">
-        <v>6.0999999999999995E-3</v>
-      </c>
-      <c r="M186" s="3">
+      <c r="L186" s="5">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M186" s="5">
         <v>1.41E-2</v>
       </c>
       <c r="N186" t="s">
@@ -11318,16 +11326,16 @@
       <c r="I187">
         <v>944</v>
       </c>
-      <c r="J187">
-        <v>2146</v>
-      </c>
-      <c r="K187" s="3">
-        <v>0.24280000000000002</v>
-      </c>
-      <c r="L187" s="3">
+      <c r="J187" s="4">
+        <v>2147</v>
+      </c>
+      <c r="K187" s="5">
+        <v>0.24279999999999999</v>
+      </c>
+      <c r="L187" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M187" s="3">
+      <c r="M187" s="5">
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="N187" t="s">
@@ -11372,16 +11380,16 @@
       <c r="I188">
         <v>944</v>
       </c>
-      <c r="J188">
-        <v>2146</v>
-      </c>
-      <c r="K188" s="3">
-        <v>0.24280000000000002</v>
-      </c>
-      <c r="L188" s="3">
+      <c r="J188" s="4">
+        <v>2147</v>
+      </c>
+      <c r="K188" s="5">
+        <v>0.24279999999999999</v>
+      </c>
+      <c r="L188" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M188" s="3">
+      <c r="M188" s="5">
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="N188" t="s">
@@ -11426,16 +11434,16 @@
       <c r="I189">
         <v>944</v>
       </c>
-      <c r="J189">
-        <v>2146</v>
-      </c>
-      <c r="K189" s="3">
-        <v>0.24280000000000002</v>
-      </c>
-      <c r="L189" s="3">
+      <c r="J189" s="4">
+        <v>2147</v>
+      </c>
+      <c r="K189" s="5">
+        <v>0.24279999999999999</v>
+      </c>
+      <c r="L189" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M189" s="3">
+      <c r="M189" s="5">
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="N189" t="s">
@@ -11480,16 +11488,16 @@
       <c r="I190">
         <v>944</v>
       </c>
-      <c r="J190">
-        <v>2146</v>
-      </c>
-      <c r="K190" s="3">
-        <v>0.24280000000000002</v>
-      </c>
-      <c r="L190" s="3">
+      <c r="J190" s="4">
+        <v>2147</v>
+      </c>
+      <c r="K190" s="5">
+        <v>0.24279999999999999</v>
+      </c>
+      <c r="L190" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M190" s="3">
+      <c r="M190" s="5">
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="N190" t="s">
@@ -11534,16 +11542,16 @@
       <c r="I191">
         <v>944</v>
       </c>
-      <c r="J191">
-        <v>2146</v>
-      </c>
-      <c r="K191" s="3">
-        <v>0.24280000000000002</v>
-      </c>
-      <c r="L191" s="3">
+      <c r="J191" s="4">
+        <v>2147</v>
+      </c>
+      <c r="K191" s="5">
+        <v>0.24279999999999999</v>
+      </c>
+      <c r="L191" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M191" s="3">
+      <c r="M191" s="5">
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="N191" t="s">
@@ -11588,16 +11596,16 @@
       <c r="I192">
         <v>1075</v>
       </c>
-      <c r="J192">
-        <v>1986</v>
-      </c>
-      <c r="K192" s="3">
-        <v>0.23070000000000002</v>
-      </c>
-      <c r="L192" s="3">
+      <c r="J192" s="4">
+        <v>1987</v>
+      </c>
+      <c r="K192" s="5">
+        <v>0.23069999999999999</v>
+      </c>
+      <c r="L192" s="5">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="M192" s="3">
+      <c r="M192" s="5">
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="N192" t="s">
@@ -11642,16 +11650,16 @@
       <c r="I193">
         <v>1075</v>
       </c>
-      <c r="J193">
-        <v>1986</v>
-      </c>
-      <c r="K193" s="3">
-        <v>0.23070000000000002</v>
-      </c>
-      <c r="L193" s="3">
+      <c r="J193" s="4">
+        <v>1987</v>
+      </c>
+      <c r="K193" s="5">
+        <v>0.23069999999999999</v>
+      </c>
+      <c r="L193" s="5">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="M193" s="3">
+      <c r="M193" s="5">
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="N193" t="s">
@@ -11696,16 +11704,16 @@
       <c r="I194">
         <v>1075</v>
       </c>
-      <c r="J194">
-        <v>1986</v>
-      </c>
-      <c r="K194" s="3">
-        <v>0.23070000000000002</v>
-      </c>
-      <c r="L194" s="3">
+      <c r="J194" s="4">
+        <v>1987</v>
+      </c>
+      <c r="K194" s="5">
+        <v>0.23069999999999999</v>
+      </c>
+      <c r="L194" s="5">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="M194" s="3">
+      <c r="M194" s="5">
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="N194" t="s">
@@ -11750,16 +11758,16 @@
       <c r="I195">
         <v>1075</v>
       </c>
-      <c r="J195">
-        <v>1986</v>
-      </c>
-      <c r="K195" s="3">
-        <v>0.23070000000000002</v>
-      </c>
-      <c r="L195" s="3">
+      <c r="J195" s="4">
+        <v>1987</v>
+      </c>
+      <c r="K195" s="5">
+        <v>0.23069999999999999</v>
+      </c>
+      <c r="L195" s="5">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="M195" s="3">
+      <c r="M195" s="5">
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="N195" t="s">
@@ -11804,16 +11812,16 @@
       <c r="I196">
         <v>1075</v>
       </c>
-      <c r="J196">
-        <v>1986</v>
-      </c>
-      <c r="K196" s="3">
-        <v>0.23070000000000002</v>
-      </c>
-      <c r="L196" s="3">
+      <c r="J196" s="4">
+        <v>1987</v>
+      </c>
+      <c r="K196" s="5">
+        <v>0.23069999999999999</v>
+      </c>
+      <c r="L196" s="5">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="M196" s="3">
+      <c r="M196" s="5">
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="N196" t="s">
@@ -11858,17 +11866,17 @@
       <c r="I197">
         <v>788</v>
       </c>
-      <c r="J197">
-        <v>1955</v>
-      </c>
-      <c r="K197" s="3">
+      <c r="J197" s="4">
+        <v>1954</v>
+      </c>
+      <c r="K197" s="5">
         <v>0.19570000000000001</v>
       </c>
-      <c r="L197" s="3">
+      <c r="L197" s="5">
         <v>4.3E-3</v>
       </c>
-      <c r="M197" s="3">
-        <v>1.0700000000000001E-2</v>
+      <c r="M197" s="5">
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="N197" t="s">
         <v>257</v>
@@ -11912,17 +11920,17 @@
       <c r="I198">
         <v>788</v>
       </c>
-      <c r="J198">
-        <v>1955</v>
-      </c>
-      <c r="K198" s="3">
+      <c r="J198" s="4">
+        <v>1954</v>
+      </c>
+      <c r="K198" s="5">
         <v>0.19570000000000001</v>
       </c>
-      <c r="L198" s="3">
+      <c r="L198" s="5">
         <v>4.3E-3</v>
       </c>
-      <c r="M198" s="3">
-        <v>1.0700000000000001E-2</v>
+      <c r="M198" s="5">
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="N198" t="s">
         <v>258</v>
@@ -11966,17 +11974,17 @@
       <c r="I199">
         <v>788</v>
       </c>
-      <c r="J199">
-        <v>1955</v>
-      </c>
-      <c r="K199" s="3">
+      <c r="J199" s="4">
+        <v>1954</v>
+      </c>
+      <c r="K199" s="5">
         <v>0.19570000000000001</v>
       </c>
-      <c r="L199" s="3">
+      <c r="L199" s="5">
         <v>4.3E-3</v>
       </c>
-      <c r="M199" s="3">
-        <v>1.0700000000000001E-2</v>
+      <c r="M199" s="5">
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="N199" t="s">
         <v>258</v>
@@ -12020,17 +12028,17 @@
       <c r="I200">
         <v>788</v>
       </c>
-      <c r="J200">
-        <v>1955</v>
-      </c>
-      <c r="K200" s="3">
+      <c r="J200" s="4">
+        <v>1954</v>
+      </c>
+      <c r="K200" s="5">
         <v>0.19570000000000001</v>
       </c>
-      <c r="L200" s="3">
+      <c r="L200" s="5">
         <v>4.3E-3</v>
       </c>
-      <c r="M200" s="3">
-        <v>1.0700000000000001E-2</v>
+      <c r="M200" s="5">
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="N200" t="s">
         <v>258</v>
@@ -12074,17 +12082,17 @@
       <c r="I201">
         <v>788</v>
       </c>
-      <c r="J201">
-        <v>1955</v>
-      </c>
-      <c r="K201" s="3">
+      <c r="J201" s="4">
+        <v>1954</v>
+      </c>
+      <c r="K201" s="5">
         <v>0.19570000000000001</v>
       </c>
-      <c r="L201" s="3">
+      <c r="L201" s="5">
         <v>4.3E-3</v>
       </c>
-      <c r="M201" s="3">
-        <v>1.0700000000000001E-2</v>
+      <c r="M201" s="5">
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="N201" t="s">
         <v>258</v>
@@ -12128,17 +12136,17 @@
       <c r="I202">
         <v>788</v>
       </c>
-      <c r="J202">
-        <v>1955</v>
-      </c>
-      <c r="K202" s="3">
+      <c r="J202" s="4">
+        <v>1954</v>
+      </c>
+      <c r="K202" s="5">
         <v>0.19570000000000001</v>
       </c>
-      <c r="L202" s="3">
+      <c r="L202" s="5">
         <v>4.3E-3</v>
       </c>
-      <c r="M202" s="3">
-        <v>1.0700000000000001E-2</v>
+      <c r="M202" s="5">
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="N202" t="s">
         <v>258</v>
@@ -12182,17 +12190,17 @@
       <c r="I203">
         <v>875</v>
       </c>
-      <c r="J203">
-        <v>2268</v>
-      </c>
-      <c r="K203" s="3">
+      <c r="J203" s="4">
+        <v>2262</v>
+      </c>
+      <c r="K203" s="5">
         <v>0.18770000000000001</v>
       </c>
-      <c r="L203" s="3">
+      <c r="L203" s="5">
         <v>5.3E-3</v>
       </c>
-      <c r="M203" s="3">
-        <v>1.3899999999999999E-2</v>
+      <c r="M203" s="5">
+        <v>1.38E-2</v>
       </c>
       <c r="N203" t="s">
         <v>257</v>
@@ -12236,17 +12244,17 @@
       <c r="I204">
         <v>875</v>
       </c>
-      <c r="J204">
-        <v>2268</v>
-      </c>
-      <c r="K204" s="3">
+      <c r="J204" s="4">
+        <v>2262</v>
+      </c>
+      <c r="K204" s="5">
         <v>0.18770000000000001</v>
       </c>
-      <c r="L204" s="3">
+      <c r="L204" s="5">
         <v>5.3E-3</v>
       </c>
-      <c r="M204" s="3">
-        <v>1.3899999999999999E-2</v>
+      <c r="M204" s="5">
+        <v>1.38E-2</v>
       </c>
       <c r="N204" t="s">
         <v>258</v>
@@ -12290,17 +12298,17 @@
       <c r="I205">
         <v>875</v>
       </c>
-      <c r="J205">
-        <v>2268</v>
-      </c>
-      <c r="K205" s="3">
+      <c r="J205" s="4">
+        <v>2262</v>
+      </c>
+      <c r="K205" s="5">
         <v>0.18770000000000001</v>
       </c>
-      <c r="L205" s="3">
+      <c r="L205" s="5">
         <v>5.3E-3</v>
       </c>
-      <c r="M205" s="3">
-        <v>1.3899999999999999E-2</v>
+      <c r="M205" s="5">
+        <v>1.38E-2</v>
       </c>
       <c r="N205" t="s">
         <v>258</v>
@@ -12344,17 +12352,17 @@
       <c r="I206">
         <v>875</v>
       </c>
-      <c r="J206">
-        <v>2268</v>
-      </c>
-      <c r="K206" s="3">
+      <c r="J206" s="4">
+        <v>2262</v>
+      </c>
+      <c r="K206" s="5">
         <v>0.18770000000000001</v>
       </c>
-      <c r="L206" s="3">
+      <c r="L206" s="5">
         <v>5.3E-3</v>
       </c>
-      <c r="M206" s="3">
-        <v>1.3899999999999999E-2</v>
+      <c r="M206" s="5">
+        <v>1.38E-2</v>
       </c>
       <c r="N206" t="s">
         <v>258</v>
@@ -12398,17 +12406,17 @@
       <c r="I207">
         <v>875</v>
       </c>
-      <c r="J207">
-        <v>2268</v>
-      </c>
-      <c r="K207" s="3">
+      <c r="J207" s="4">
+        <v>2262</v>
+      </c>
+      <c r="K207" s="5">
         <v>0.18770000000000001</v>
       </c>
-      <c r="L207" s="3">
+      <c r="L207" s="5">
         <v>5.3E-3</v>
       </c>
-      <c r="M207" s="3">
-        <v>1.3899999999999999E-2</v>
+      <c r="M207" s="5">
+        <v>1.38E-2</v>
       </c>
       <c r="N207" t="s">
         <v>258</v>
@@ -12452,16 +12460,16 @@
       <c r="I208">
         <v>1013</v>
       </c>
-      <c r="J208">
-        <v>2318</v>
-      </c>
-      <c r="K208" s="3">
+      <c r="J208" s="4">
+        <v>2319</v>
+      </c>
+      <c r="K208" s="5">
         <v>0.20860000000000001</v>
       </c>
-      <c r="L208" s="3">
+      <c r="L208" s="5">
         <v>6.3E-3</v>
       </c>
-      <c r="M208" s="3">
+      <c r="M208" s="5">
         <v>1.44E-2</v>
       </c>
       <c r="N208" t="s">
@@ -12506,16 +12514,16 @@
       <c r="I209">
         <v>1013</v>
       </c>
-      <c r="J209">
-        <v>2318</v>
-      </c>
-      <c r="K209" s="3">
+      <c r="J209" s="4">
+        <v>2319</v>
+      </c>
+      <c r="K209" s="5">
         <v>0.20860000000000001</v>
       </c>
-      <c r="L209" s="3">
+      <c r="L209" s="5">
         <v>6.3E-3</v>
       </c>
-      <c r="M209" s="3">
+      <c r="M209" s="5">
         <v>1.44E-2</v>
       </c>
       <c r="N209" t="s">
@@ -12560,16 +12568,16 @@
       <c r="I210">
         <v>1013</v>
       </c>
-      <c r="J210">
-        <v>2318</v>
-      </c>
-      <c r="K210" s="3">
+      <c r="J210" s="4">
+        <v>2319</v>
+      </c>
+      <c r="K210" s="5">
         <v>0.20860000000000001</v>
       </c>
-      <c r="L210" s="3">
+      <c r="L210" s="5">
         <v>6.3E-3</v>
       </c>
-      <c r="M210" s="3">
+      <c r="M210" s="5">
         <v>1.44E-2</v>
       </c>
       <c r="N210" t="s">
@@ -12614,16 +12622,16 @@
       <c r="I211">
         <v>1013</v>
       </c>
-      <c r="J211">
-        <v>2318</v>
-      </c>
-      <c r="K211" s="3">
+      <c r="J211" s="4">
+        <v>2319</v>
+      </c>
+      <c r="K211" s="5">
         <v>0.20860000000000001</v>
       </c>
-      <c r="L211" s="3">
+      <c r="L211" s="5">
         <v>6.3E-3</v>
       </c>
-      <c r="M211" s="3">
+      <c r="M211" s="5">
         <v>1.44E-2</v>
       </c>
       <c r="N211" t="s">
@@ -12668,16 +12676,16 @@
       <c r="I212">
         <v>1013</v>
       </c>
-      <c r="J212">
-        <v>2318</v>
-      </c>
-      <c r="K212" s="3">
+      <c r="J212" s="4">
+        <v>2319</v>
+      </c>
+      <c r="K212" s="5">
         <v>0.20860000000000001</v>
       </c>
-      <c r="L212" s="3">
+      <c r="L212" s="5">
         <v>6.3E-3</v>
       </c>
-      <c r="M212" s="3">
+      <c r="M212" s="5">
         <v>1.44E-2</v>
       </c>
       <c r="N212" t="s">
@@ -12722,16 +12730,16 @@
       <c r="I213">
         <v>1013</v>
       </c>
-      <c r="J213">
-        <v>2318</v>
-      </c>
-      <c r="K213" s="3">
+      <c r="J213" s="4">
+        <v>2319</v>
+      </c>
+      <c r="K213" s="5">
         <v>0.20860000000000001</v>
       </c>
-      <c r="L213" s="3">
+      <c r="L213" s="5">
         <v>6.3E-3</v>
       </c>
-      <c r="M213" s="3">
+      <c r="M213" s="5">
         <v>1.44E-2</v>
       </c>
       <c r="N213" t="s">
@@ -12776,16 +12784,16 @@
       <c r="I214">
         <v>1013</v>
       </c>
-      <c r="J214">
-        <v>2318</v>
-      </c>
-      <c r="K214" s="3">
+      <c r="J214" s="4">
+        <v>2319</v>
+      </c>
+      <c r="K214" s="5">
         <v>0.20860000000000001</v>
       </c>
-      <c r="L214" s="3">
+      <c r="L214" s="5">
         <v>6.3E-3</v>
       </c>
-      <c r="M214" s="3">
+      <c r="M214" s="5">
         <v>1.44E-2</v>
       </c>
       <c r="N214" t="s">
@@ -12830,17 +12838,17 @@
       <c r="I215">
         <v>822</v>
       </c>
-      <c r="J215">
-        <v>2383</v>
-      </c>
-      <c r="K215" s="3">
+      <c r="J215" s="4">
+        <v>2380</v>
+      </c>
+      <c r="K215" s="5">
         <v>0.24979999999999999</v>
       </c>
-      <c r="L215" s="3">
-        <v>5.6999999999999993E-3</v>
-      </c>
-      <c r="M215" s="3">
-        <v>1.6500000000000001E-2</v>
+      <c r="L215" s="5">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="M215" s="5">
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="N215" t="s">
         <v>257</v>
@@ -12884,17 +12892,17 @@
       <c r="I216">
         <v>822</v>
       </c>
-      <c r="J216">
-        <v>2383</v>
-      </c>
-      <c r="K216" s="3">
+      <c r="J216" s="4">
+        <v>2380</v>
+      </c>
+      <c r="K216" s="5">
         <v>0.24979999999999999</v>
       </c>
-      <c r="L216" s="3">
-        <v>5.6999999999999993E-3</v>
-      </c>
-      <c r="M216" s="3">
-        <v>1.6500000000000001E-2</v>
+      <c r="L216" s="5">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="M216" s="5">
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="N216" t="s">
         <v>258</v>
@@ -12938,17 +12946,17 @@
       <c r="I217">
         <v>822</v>
       </c>
-      <c r="J217">
-        <v>2383</v>
-      </c>
-      <c r="K217" s="3">
+      <c r="J217" s="4">
+        <v>2380</v>
+      </c>
+      <c r="K217" s="5">
         <v>0.24979999999999999</v>
       </c>
-      <c r="L217" s="3">
-        <v>5.6999999999999993E-3</v>
-      </c>
-      <c r="M217" s="3">
-        <v>1.6500000000000001E-2</v>
+      <c r="L217" s="5">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="M217" s="5">
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="N217" t="s">
         <v>258</v>
@@ -12992,17 +13000,17 @@
       <c r="I218">
         <v>822</v>
       </c>
-      <c r="J218">
-        <v>2383</v>
-      </c>
-      <c r="K218" s="3">
+      <c r="J218" s="4">
+        <v>2380</v>
+      </c>
+      <c r="K218" s="5">
         <v>0.24979999999999999</v>
       </c>
-      <c r="L218" s="3">
-        <v>5.6999999999999993E-3</v>
-      </c>
-      <c r="M218" s="3">
-        <v>1.6500000000000001E-2</v>
+      <c r="L218" s="5">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="M218" s="5">
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="N218" t="s">
         <v>258</v>
@@ -13046,16 +13054,16 @@
       <c r="I219">
         <v>577</v>
       </c>
-      <c r="J219">
+      <c r="J219" s="4">
         <v>3143</v>
       </c>
-      <c r="K219" s="3">
-        <v>0.23739999999999997</v>
-      </c>
-      <c r="L219" s="3">
+      <c r="K219" s="5">
+        <v>0.2374</v>
+      </c>
+      <c r="L219" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M219" s="3">
+      <c r="M219" s="5">
         <v>0.02</v>
       </c>
       <c r="N219" t="s">
@@ -13100,16 +13108,16 @@
       <c r="I220">
         <v>577</v>
       </c>
-      <c r="J220">
+      <c r="J220" s="4">
         <v>3143</v>
       </c>
-      <c r="K220" s="3">
-        <v>0.23739999999999997</v>
-      </c>
-      <c r="L220" s="3">
+      <c r="K220" s="5">
+        <v>0.2374</v>
+      </c>
+      <c r="L220" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M220" s="3">
+      <c r="M220" s="5">
         <v>0.02</v>
       </c>
       <c r="N220" t="s">
@@ -13154,16 +13162,16 @@
       <c r="I221">
         <v>577</v>
       </c>
-      <c r="J221">
+      <c r="J221" s="4">
         <v>3143</v>
       </c>
-      <c r="K221" s="3">
-        <v>0.23739999999999997</v>
-      </c>
-      <c r="L221" s="3">
+      <c r="K221" s="5">
+        <v>0.2374</v>
+      </c>
+      <c r="L221" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M221" s="3">
+      <c r="M221" s="5">
         <v>0.02</v>
       </c>
       <c r="N221" t="s">
@@ -13208,16 +13216,16 @@
       <c r="I222">
         <v>577</v>
       </c>
-      <c r="J222">
+      <c r="J222" s="4">
         <v>3143</v>
       </c>
-      <c r="K222" s="3">
-        <v>0.23739999999999997</v>
-      </c>
-      <c r="L222" s="3">
+      <c r="K222" s="5">
+        <v>0.2374</v>
+      </c>
+      <c r="L222" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M222" s="3">
+      <c r="M222" s="5">
         <v>0.02</v>
       </c>
       <c r="N222" t="s">
@@ -13262,17 +13270,17 @@
       <c r="I223">
         <v>592</v>
       </c>
-      <c r="J223">
-        <v>3058</v>
-      </c>
-      <c r="K223" s="3">
-        <v>0.23019999999999999</v>
-      </c>
-      <c r="L223" s="3">
+      <c r="J223" s="4">
+        <v>3045</v>
+      </c>
+      <c r="K223" s="5">
+        <v>0.2301</v>
+      </c>
+      <c r="L223" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M223" s="3">
-        <v>2.06E-2</v>
+      <c r="M223" s="5">
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="N223" t="s">
         <v>257</v>
@@ -13316,17 +13324,17 @@
       <c r="I224">
         <v>592</v>
       </c>
-      <c r="J224">
-        <v>3058</v>
-      </c>
-      <c r="K224" s="3">
-        <v>0.23019999999999999</v>
-      </c>
-      <c r="L224" s="3">
+      <c r="J224" s="4">
+        <v>3045</v>
+      </c>
+      <c r="K224" s="5">
+        <v>0.2301</v>
+      </c>
+      <c r="L224" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M224" s="3">
-        <v>2.06E-2</v>
+      <c r="M224" s="5">
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="N224" t="s">
         <v>258</v>
@@ -13370,17 +13378,17 @@
       <c r="I225">
         <v>592</v>
       </c>
-      <c r="J225">
-        <v>3058</v>
-      </c>
-      <c r="K225" s="3">
-        <v>0.23019999999999999</v>
-      </c>
-      <c r="L225" s="3">
+      <c r="J225" s="4">
+        <v>3045</v>
+      </c>
+      <c r="K225" s="5">
+        <v>0.2301</v>
+      </c>
+      <c r="L225" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M225" s="3">
-        <v>2.06E-2</v>
+      <c r="M225" s="5">
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="N225" t="s">
         <v>258</v>
@@ -13424,17 +13432,17 @@
       <c r="I226">
         <v>592</v>
       </c>
-      <c r="J226">
-        <v>3058</v>
-      </c>
-      <c r="K226" s="3">
-        <v>0.23019999999999999</v>
-      </c>
-      <c r="L226" s="3">
+      <c r="J226" s="4">
+        <v>3045</v>
+      </c>
+      <c r="K226" s="5">
+        <v>0.2301</v>
+      </c>
+      <c r="L226" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M226" s="3">
-        <v>2.06E-2</v>
+      <c r="M226" s="5">
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="N226" t="s">
         <v>258</v>
